--- a/initial_data.xlsx
+++ b/initial_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_tag" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="location" sheetId="4" r:id="rId6"/>
     <sheet name="campaign_type" sheetId="9" r:id="rId7"/>
     <sheet name="campaign" sheetId="5" r:id="rId8"/>
-    <sheet name="source-data_pre-campaign-histor" sheetId="6" r:id="rId9"/>
-    <sheet name="source-data_intra-campaign-hist" sheetId="7" r:id="rId10"/>
-    <sheet name="source-data_post-campaign-histo" sheetId="8" r:id="rId11"/>
+    <sheet name="auth_group" sheetId="12" r:id="rId9"/>
+    <sheet name="source-data_pre-campaign-histor" sheetId="6" r:id="rId10"/>
+    <sheet name="source-data_intra-campaign-hist" sheetId="7" r:id="rId11"/>
+    <sheet name="source-data_post-campaign-histo" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1059">
   <si>
     <t>tag_name</t>
   </si>
@@ -3193,6 +3194,24 @@
   </si>
   <si>
     <t>campaign_type_id</t>
+  </si>
+  <si>
+    <t>data_entry</t>
+  </si>
+  <si>
+    <t>source_data</t>
+  </si>
+  <si>
+    <t>manage_system</t>
+  </si>
+  <si>
+    <t>explore_data</t>
+  </si>
+  <si>
+    <t>chart_builder</t>
+  </si>
+  <si>
+    <t>chart_edit</t>
   </si>
 </sst>
 </file>
@@ -3575,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -3643,6 +3662,677 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N2" s="10">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N4" s="10">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N6" s="10">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N10" s="10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N11" s="10">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N12" s="10">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N13" s="10">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N14" s="10">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4102,7 +4792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -5696,7 +6386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView topLeftCell="A425" workbookViewId="0">
+    <sheetView topLeftCell="A411" workbookViewId="0">
       <selection activeCell="G442" sqref="G442"/>
     </sheetView>
   </sheetViews>
@@ -15395,668 +16085,71 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>988</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>989</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>990</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>991</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>993</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>996</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>998</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>952</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>953</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N2" s="10">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>967</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N3" s="10">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>948</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N4" s="10">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N5" s="10">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>945</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N6" s="10">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N7" s="10">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>960</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>961</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0.98</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>963</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0.98</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N10" s="10">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N11" s="10">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N12" s="10">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N13" s="10">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N14" s="10">
-        <v>1</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>1003</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1058</v>
       </c>
     </row>
   </sheetData>

--- a/initial_data.xlsx
+++ b/initial_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_tag" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="campaign_type" sheetId="9" r:id="rId7"/>
     <sheet name="campaign" sheetId="5" r:id="rId8"/>
     <sheet name="auth_group" sheetId="12" r:id="rId9"/>
-    <sheet name="source-data_pre-campaign-histor" sheetId="6" r:id="rId10"/>
-    <sheet name="source-data_intra-campaign-hist" sheetId="7" r:id="rId11"/>
-    <sheet name="source-data_post-campaign-histo" sheetId="8" r:id="rId12"/>
+    <sheet name="doc_detail_type" sheetId="15" r:id="rId10"/>
+    <sheet name="source-data_pre-campaign-histor" sheetId="6" r:id="rId11"/>
+    <sheet name="source-data_intra-campaign-hist" sheetId="7" r:id="rId12"/>
+    <sheet name="source-data_post-campaign-histo" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1070">
   <si>
     <t>tag_name</t>
   </si>
@@ -3212,6 +3213,39 @@
   </si>
   <si>
     <t>chart_edit</t>
+  </si>
+  <si>
+    <t>location_column</t>
+  </si>
+  <si>
+    <t>uq_id_column</t>
+  </si>
+  <si>
+    <t>submission_count</t>
+  </si>
+  <si>
+    <t>submission_processed_count</t>
+  </si>
+  <si>
+    <t>submission_to_process_count</t>
+  </si>
+  <si>
+    <t>doc_datapoint_count</t>
+  </si>
+  <si>
+    <t>datapoint_count</t>
+  </si>
+  <si>
+    <t>agg_datapoint_count</t>
+  </si>
+  <si>
+    <t>calc_datapoint_count</t>
+  </si>
+  <si>
+    <t>date_column</t>
+  </si>
+  <si>
+    <t>campaign_column</t>
   </si>
 </sst>
 </file>
@@ -3662,6 +3696,120 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4331,7 +4479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -4792,7 +4940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -16087,7 +16235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/initial_data.xlsx
+++ b/initial_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_tag" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="1118">
   <si>
     <t>tag_name</t>
   </si>
@@ -3005,9 +3005,6 @@
     <t>Khashrod</t>
   </si>
   <si>
-    <t>loc-code</t>
-  </si>
-  <si>
     <t>loc-name</t>
   </si>
   <si>
@@ -3083,12 +3080,6 @@
     <t>Evening meeting_750</t>
   </si>
   <si>
-    <t>location-code</t>
-  </si>
-  <si>
-    <t>data_date</t>
-  </si>
-  <si>
     <t>Outside_percent_missed_274</t>
   </si>
   <si>
@@ -3384,9 +3375,6 @@
   </si>
   <si>
     <t>date_attempted</t>
-  </si>
-  <si>
-    <t>unique_id</t>
   </si>
   <si>
     <t>Province Name</t>
@@ -3482,7 +3470,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3507,6 +3495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3811,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3886,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -3894,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -3902,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -3910,7 +3899,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -3918,7 +3907,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -3926,7 +3915,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -3960,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -3968,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -3976,7 +3965,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -3984,7 +3973,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -3992,7 +3981,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -4000,7 +3989,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -4008,7 +3997,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -4016,7 +4005,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -4024,7 +4013,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -4032,7 +4021,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -4040,7 +4029,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -4064,13 +4053,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1" t="s">
         <v>1070</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4078,7 +4067,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4089,7 +4078,7 @@
         <v>140</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -4100,7 +4089,7 @@
         <v>920</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C4">
         <v>408</v>
@@ -4111,7 +4100,7 @@
         <v>922</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C5">
         <v>409</v>
@@ -4122,7 +4111,7 @@
         <v>924</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C6">
         <v>410</v>
@@ -4133,7 +4122,7 @@
         <v>926</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C7">
         <v>411</v>
@@ -4144,7 +4133,7 @@
         <v>928</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C8">
         <v>412</v>
@@ -4155,7 +4144,7 @@
         <v>176</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C9">
         <v>36</v>
@@ -4166,7 +4155,7 @@
         <v>890</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C10">
         <v>393</v>
@@ -4177,7 +4166,7 @@
         <v>852</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C11">
         <v>374</v>
@@ -4188,7 +4177,7 @@
         <v>840</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C12">
         <v>368</v>
@@ -4199,7 +4188,7 @@
         <v>828</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C13">
         <v>362</v>
@@ -4210,7 +4199,7 @@
         <v>914</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C14">
         <v>405</v>
@@ -4221,7 +4210,7 @@
         <v>912</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C15">
         <v>404</v>
@@ -4232,7 +4221,7 @@
         <v>864</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C16">
         <v>380</v>
@@ -4243,7 +4232,7 @@
         <v>872</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C17">
         <v>384</v>
@@ -4254,7 +4243,7 @@
         <v>824</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C18">
         <v>360</v>
@@ -4265,7 +4254,7 @@
         <v>818</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C19">
         <v>357</v>
@@ -4276,7 +4265,7 @@
         <v>832</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C20">
         <v>364</v>
@@ -4287,7 +4276,7 @@
         <v>906</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C21">
         <v>401</v>
@@ -4298,7 +4287,7 @@
         <v>908</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C22">
         <v>402</v>
@@ -4309,7 +4298,7 @@
         <v>886</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C23">
         <v>391</v>
@@ -4320,7 +4309,7 @@
         <v>738</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C24">
         <v>317</v>
@@ -4331,7 +4320,7 @@
         <v>902</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C25">
         <v>399</v>
@@ -4342,7 +4331,7 @@
         <v>892</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C26">
         <v>394</v>
@@ -4353,7 +4342,7 @@
         <v>910</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C27">
         <v>403</v>
@@ -4364,7 +4353,7 @@
         <v>904</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C28">
         <v>400</v>
@@ -4375,7 +4364,7 @@
         <v>870</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C29">
         <v>383</v>
@@ -4386,7 +4375,7 @@
         <v>778</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C30">
         <v>337</v>
@@ -4397,7 +4386,7 @@
         <v>826</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C31">
         <v>361</v>
@@ -4408,7 +4397,7 @@
         <v>882</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C32">
         <v>389</v>
@@ -4419,7 +4408,7 @@
         <v>816</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C33">
         <v>356</v>
@@ -4430,7 +4419,7 @@
         <v>880</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C34">
         <v>388</v>
@@ -4441,7 +4430,7 @@
         <v>772</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C35">
         <v>334</v>
@@ -4452,7 +4441,7 @@
         <v>900</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C36">
         <v>398</v>
@@ -4463,7 +4452,7 @@
         <v>774</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C37">
         <v>335</v>
@@ -4474,7 +4463,7 @@
         <v>144</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C38">
         <v>20</v>
@@ -4485,7 +4474,7 @@
         <v>598</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C39">
         <v>247</v>
@@ -4496,7 +4485,7 @@
         <v>684</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C40">
         <v>290</v>
@@ -4507,7 +4496,7 @@
         <v>698</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C41">
         <v>297</v>
@@ -4518,7 +4507,7 @@
         <v>652</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C42">
         <v>274</v>
@@ -4529,7 +4518,7 @@
         <v>640</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C43">
         <v>268</v>
@@ -4540,7 +4529,7 @@
         <v>608</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C44">
         <v>252</v>
@@ -4551,7 +4540,7 @@
         <v>568</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C45">
         <v>232</v>
@@ -4562,7 +4551,7 @@
         <v>146</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C46">
         <v>21</v>
@@ -4573,7 +4562,7 @@
         <v>674</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C47">
         <v>285</v>
@@ -4584,7 +4573,7 @@
         <v>758</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C48">
         <v>327</v>
@@ -4595,7 +4584,7 @@
         <v>748</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C49">
         <v>322</v>
@@ -4606,7 +4595,7 @@
         <v>704</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C50">
         <v>300</v>
@@ -4617,7 +4606,7 @@
         <v>678</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C51">
         <v>287</v>
@@ -4628,7 +4617,7 @@
         <v>688</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C52">
         <v>292</v>
@@ -4639,7 +4628,7 @@
         <v>730</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C53">
         <v>313</v>
@@ -4650,7 +4639,7 @@
         <v>740</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C54">
         <v>318</v>
@@ -4661,7 +4650,7 @@
         <v>666</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C55">
         <v>281</v>
@@ -4672,7 +4661,7 @@
         <v>710</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C56">
         <v>303</v>
@@ -4683,7 +4672,7 @@
         <v>712</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C57">
         <v>304</v>
@@ -4694,7 +4683,7 @@
         <v>726</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C58">
         <v>311</v>
@@ -4705,7 +4694,7 @@
         <v>714</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C59">
         <v>305</v>
@@ -4716,7 +4705,7 @@
         <v>672</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C60">
         <v>284</v>
@@ -4727,7 +4716,7 @@
         <v>658</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C61">
         <v>277</v>
@@ -4738,7 +4727,7 @@
         <v>148</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C62">
         <v>22</v>
@@ -4749,7 +4738,7 @@
         <v>804</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C63">
         <v>350</v>
@@ -4760,7 +4749,7 @@
         <v>822</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C64">
         <v>359</v>
@@ -4771,7 +4760,7 @@
         <v>760</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C65">
         <v>328</v>
@@ -4782,7 +4771,7 @@
         <v>788</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C66">
         <v>342</v>
@@ -4793,7 +4782,7 @@
         <v>848</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C67">
         <v>372</v>
@@ -4804,7 +4793,7 @@
         <v>786</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C68">
         <v>341</v>
@@ -4815,7 +4804,7 @@
         <v>862</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C69">
         <v>379</v>
@@ -4826,7 +4815,7 @@
         <v>728</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C70">
         <v>312</v>
@@ -4837,7 +4826,7 @@
         <v>834</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C71">
         <v>365</v>
@@ -4848,7 +4837,7 @@
         <v>784</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C72">
         <v>340</v>
@@ -4859,7 +4848,7 @@
         <v>780</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C73">
         <v>338</v>
@@ -4870,7 +4859,7 @@
         <v>836</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C74">
         <v>366</v>
@@ -4881,7 +4870,7 @@
         <v>856</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C75">
         <v>376</v>
@@ -4892,7 +4881,7 @@
         <v>756</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C76">
         <v>326</v>
@@ -4903,7 +4892,7 @@
         <v>874</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C77">
         <v>385</v>
@@ -4914,7 +4903,7 @@
         <v>702</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C78">
         <v>299</v>
@@ -4925,7 +4914,7 @@
         <v>150</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C79">
         <v>23</v>
@@ -4936,7 +4925,7 @@
         <v>562</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C80">
         <v>229</v>
@@ -4947,7 +4936,7 @@
         <v>648</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C81">
         <v>272</v>
@@ -4958,7 +4947,7 @@
         <v>482</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C82">
         <v>189</v>
@@ -4969,7 +4958,7 @@
         <v>620</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C83">
         <v>258</v>
@@ -4980,7 +4969,7 @@
         <v>606</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C84">
         <v>251</v>
@@ -4991,7 +4980,7 @@
         <v>442</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C85">
         <v>169</v>
@@ -5002,7 +4991,7 @@
         <v>644</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C86">
         <v>270</v>
@@ -5013,7 +5002,7 @@
         <v>152</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C87">
         <v>24</v>
@@ -5024,7 +5013,7 @@
         <v>428</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C88">
         <v>162</v>
@@ -5035,7 +5024,7 @@
         <v>342</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C89">
         <v>119</v>
@@ -5046,7 +5035,7 @@
         <v>292</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C90">
         <v>94</v>
@@ -5057,7 +5046,7 @@
         <v>394</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C91">
         <v>145</v>
@@ -5068,7 +5057,7 @@
         <v>348</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C92">
         <v>122</v>
@@ -5079,7 +5068,7 @@
         <v>382</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C93">
         <v>139</v>
@@ -5090,7 +5079,7 @@
         <v>366</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C94">
         <v>131</v>
@@ -5101,7 +5090,7 @@
         <v>434</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C95">
         <v>165</v>
@@ -5112,7 +5101,7 @@
         <v>380</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C96">
         <v>138</v>
@@ -5123,7 +5112,7 @@
         <v>154</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C97">
         <v>25</v>
@@ -5134,7 +5123,7 @@
         <v>308</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C98">
         <v>102</v>
@@ -5145,7 +5134,7 @@
         <v>190</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C99">
         <v>43</v>
@@ -5156,7 +5145,7 @@
         <v>264</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C100">
         <v>80</v>
@@ -5167,7 +5156,7 @@
         <v>210</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C101">
         <v>53</v>
@@ -5178,7 +5167,7 @@
         <v>252</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C102">
         <v>74</v>
@@ -5189,7 +5178,7 @@
         <v>240</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C103">
         <v>68</v>
@@ -5200,7 +5189,7 @@
         <v>970</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C104">
         <v>433</v>
@@ -5211,7 +5200,7 @@
         <v>310</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C105">
         <v>103</v>
@@ -5222,7 +5211,7 @@
         <v>200</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C106">
         <v>48</v>
@@ -5233,7 +5222,7 @@
         <v>208</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C107">
         <v>52</v>
@@ -5244,7 +5233,7 @@
         <v>182</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C108">
         <v>39</v>
@@ -5255,7 +5244,7 @@
         <v>156</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C109">
         <v>26</v>
@@ -5266,7 +5255,7 @@
         <v>724</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C110">
         <v>310</v>
@@ -5277,7 +5266,7 @@
         <v>814</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C111">
         <v>355</v>
@@ -5288,7 +5277,7 @@
         <v>700</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C112">
         <v>298</v>
@@ -5299,7 +5288,7 @@
         <v>782</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C113">
         <v>339</v>
@@ -5310,7 +5299,7 @@
         <v>676</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C114">
         <v>286</v>
@@ -5321,7 +5310,7 @@
         <v>858</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C115">
         <v>377</v>
@@ -5332,7 +5321,7 @@
         <v>716</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C116">
         <v>306</v>
@@ -5343,7 +5332,7 @@
         <v>654</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C117">
         <v>275</v>
@@ -5354,7 +5343,7 @@
         <v>692</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C118">
         <v>294</v>
@@ -5365,7 +5354,7 @@
         <v>722</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C119">
         <v>309</v>
@@ -5376,7 +5365,7 @@
         <v>810</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C120">
         <v>353</v>
@@ -5387,7 +5376,7 @@
         <v>686</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C121">
         <v>291</v>
@@ -5398,7 +5387,7 @@
         <v>850</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C122">
         <v>373</v>
@@ -5409,7 +5398,7 @@
         <v>750</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C123">
         <v>323</v>
@@ -5420,7 +5409,7 @@
         <v>158</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C124">
         <v>27</v>
@@ -5431,7 +5420,7 @@
         <v>250</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C125">
         <v>73</v>
@@ -5442,7 +5431,7 @@
         <v>352</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C126">
         <v>124</v>
@@ -5453,7 +5442,7 @@
         <v>298</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C127">
         <v>97</v>
@@ -5464,7 +5453,7 @@
         <v>324</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C128">
         <v>110</v>
@@ -5475,7 +5464,7 @@
         <v>230</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C129">
         <v>63</v>
@@ -5486,7 +5475,7 @@
         <v>328</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C130">
         <v>112</v>
@@ -5497,7 +5486,7 @@
         <v>268</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C131">
         <v>82</v>
@@ -5508,7 +5497,7 @@
         <v>332</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C132">
         <v>114</v>
@@ -5519,7 +5508,7 @@
         <v>294</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C133">
         <v>95</v>
@@ -5530,7 +5519,7 @@
         <v>344</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C134">
         <v>120</v>
@@ -5541,7 +5530,7 @@
         <v>330</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C135">
         <v>113</v>
@@ -5552,7 +5541,7 @@
         <v>256</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C136">
         <v>76</v>
@@ -5563,7 +5552,7 @@
         <v>206</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C137">
         <v>51</v>
@@ -5574,7 +5563,7 @@
         <v>404</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C138">
         <v>150</v>
@@ -5585,7 +5574,7 @@
         <v>296</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C139">
         <v>96</v>
@@ -5596,7 +5585,7 @@
         <v>356</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C140">
         <v>126</v>
@@ -5607,7 +5596,7 @@
         <v>306</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C141">
         <v>101</v>
@@ -5618,7 +5607,7 @@
         <v>326</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C142">
         <v>111</v>
@@ -5629,7 +5618,7 @@
         <v>354</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C143">
         <v>125</v>
@@ -5640,7 +5629,7 @@
         <v>160</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C144">
         <v>28</v>
@@ -5651,7 +5640,7 @@
         <v>612</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C145">
         <v>254</v>
@@ -5662,7 +5651,7 @@
         <v>610</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C146">
         <v>253</v>
@@ -5673,7 +5662,7 @@
         <v>534</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C147">
         <v>215</v>
@@ -5684,7 +5673,7 @@
         <v>466</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C148">
         <v>181</v>
@@ -5695,7 +5684,7 @@
         <v>558</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C149">
         <v>227</v>
@@ -5706,7 +5695,7 @@
         <v>378</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C150">
         <v>137</v>
@@ -5717,7 +5706,7 @@
         <v>372</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C151">
         <v>134</v>
@@ -5728,7 +5717,7 @@
         <v>468</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C152">
         <v>182</v>
@@ -5739,7 +5728,7 @@
         <v>358</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C153">
         <v>127</v>
@@ -5750,7 +5739,7 @@
         <v>420</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C154">
         <v>158</v>
@@ -5761,7 +5750,7 @@
         <v>162</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C155">
         <v>29</v>
@@ -5772,7 +5761,7 @@
         <v>334</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C156">
         <v>115</v>
@@ -5783,7 +5772,7 @@
         <v>930</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C157">
         <v>413</v>
@@ -5794,7 +5783,7 @@
         <v>940</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C158">
         <v>418</v>
@@ -5805,7 +5794,7 @@
         <v>234</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C159">
         <v>65</v>
@@ -5816,7 +5805,7 @@
         <v>954</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C160">
         <v>425</v>
@@ -5827,7 +5816,7 @@
         <v>214</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C161">
         <v>55</v>
@@ -5838,7 +5827,7 @@
         <v>964</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C162">
         <v>430</v>
@@ -5849,7 +5838,7 @@
         <v>976</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C163">
         <v>436</v>
@@ -5860,7 +5849,7 @@
         <v>946</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C164">
         <v>421</v>
@@ -5871,7 +5860,7 @@
         <v>258</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C165">
         <v>77</v>
@@ -5882,7 +5871,7 @@
         <v>942</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C166">
         <v>419</v>
@@ -5893,7 +5882,7 @@
         <v>984</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C167">
         <v>440</v>
@@ -5904,7 +5893,7 @@
         <v>196</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C168">
         <v>46</v>
@@ -5915,7 +5904,7 @@
         <v>164</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C169">
         <v>30</v>
@@ -5926,7 +5915,7 @@
         <v>388</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C170">
         <v>142</v>
@@ -5937,7 +5926,7 @@
         <v>498</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C171">
         <v>197</v>
@@ -5948,7 +5937,7 @@
         <v>396</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C172">
         <v>146</v>
@@ -5959,7 +5948,7 @@
         <v>538</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C173">
         <v>217</v>
@@ -5970,7 +5959,7 @@
         <v>660</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C174">
         <v>278</v>
@@ -5981,7 +5970,7 @@
         <v>424</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C175">
         <v>160</v>
@@ -5992,7 +5981,7 @@
         <v>448</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C176">
         <v>172</v>
@@ -6003,7 +5992,7 @@
         <v>502</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C177">
         <v>199</v>
@@ -6014,7 +6003,7 @@
         <v>494</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C178">
         <v>195</v>
@@ -6025,7 +6014,7 @@
         <v>544</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C179">
         <v>220</v>
@@ -6036,7 +6025,7 @@
         <v>642</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C180">
         <v>269</v>
@@ -6047,7 +6036,7 @@
         <v>614</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C181">
         <v>255</v>
@@ -6058,7 +6047,7 @@
         <v>488</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C182">
         <v>192</v>
@@ -6069,7 +6058,7 @@
         <v>446</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C183">
         <v>171</v>
@@ -6080,7 +6069,7 @@
         <v>320</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C184">
         <v>108</v>
@@ -6091,7 +6080,7 @@
         <v>508</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C185">
         <v>202</v>
@@ -6102,7 +6091,7 @@
         <v>166</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C186">
         <v>31</v>
@@ -6113,7 +6102,7 @@
         <v>820</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C187">
         <v>358</v>
@@ -6124,7 +6113,7 @@
         <v>708</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C188">
         <v>302</v>
@@ -6135,7 +6124,7 @@
         <v>812</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C189">
         <v>354</v>
@@ -6146,7 +6135,7 @@
         <v>888</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C190">
         <v>392</v>
@@ -6157,7 +6146,7 @@
         <v>800</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C191">
         <v>348</v>
@@ -6168,7 +6157,7 @@
         <v>854</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C192">
         <v>375</v>
@@ -6179,7 +6168,7 @@
         <v>846</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C193">
         <v>371</v>
@@ -6190,7 +6179,7 @@
         <v>860</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C194">
         <v>378</v>
@@ -6201,7 +6190,7 @@
         <v>884</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C195">
         <v>390</v>
@@ -6212,7 +6201,7 @@
         <v>744</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C196">
         <v>320</v>
@@ -6223,7 +6212,7 @@
         <v>794</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C197">
         <v>345</v>
@@ -6234,7 +6223,7 @@
         <v>168</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C198">
         <v>32</v>
@@ -6245,7 +6234,7 @@
         <v>478</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C199">
         <v>187</v>
@@ -6256,7 +6245,7 @@
         <v>462</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C200">
         <v>179</v>
@@ -6267,7 +6256,7 @@
         <v>516</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C201">
         <v>206</v>
@@ -6278,7 +6267,7 @@
         <v>540</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C202">
         <v>218</v>
@@ -6289,7 +6278,7 @@
         <v>526</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C203">
         <v>211</v>
@@ -6300,7 +6289,7 @@
         <v>512</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C204">
         <v>204</v>
@@ -6311,7 +6300,7 @@
         <v>484</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C205">
         <v>190</v>
@@ -6322,7 +6311,7 @@
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C206">
         <v>209</v>
@@ -6333,7 +6322,7 @@
         <v>476</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C207">
         <v>186</v>
@@ -6344,7 +6333,7 @@
         <v>510</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C208">
         <v>203</v>
@@ -6355,7 +6344,7 @@
         <v>452</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C209">
         <v>174</v>
@@ -6366,7 +6355,7 @@
         <v>490</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C210">
         <v>193</v>
@@ -6377,7 +6366,7 @@
         <v>546</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C211">
         <v>221</v>
@@ -6388,7 +6377,7 @@
         <v>506</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C212">
         <v>201</v>
@@ -6399,7 +6388,7 @@
         <v>532</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C213">
         <v>214</v>
@@ -6410,7 +6399,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C214">
         <v>33</v>
@@ -6421,7 +6410,7 @@
         <v>968</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C215">
         <v>432</v>
@@ -6432,7 +6421,7 @@
         <v>960</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C216">
         <v>428</v>
@@ -6443,7 +6432,7 @@
         <v>962</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C217">
         <v>429</v>
@@ -6454,7 +6443,7 @@
         <v>184</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C218">
         <v>40</v>
@@ -6465,7 +6454,7 @@
         <v>952</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C219">
         <v>424</v>
@@ -6476,7 +6465,7 @@
         <v>178</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C220">
         <v>37</v>
@@ -6487,7 +6476,7 @@
         <v>806</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C221">
         <v>351</v>
@@ -6498,7 +6487,7 @@
         <v>966</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C222">
         <v>431</v>
@@ -6509,7 +6498,7 @@
         <v>198</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C223">
         <v>47</v>
@@ -6520,7 +6509,7 @@
         <v>204</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C224">
         <v>50</v>
@@ -6531,7 +6520,7 @@
         <v>948</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C225">
         <v>422</v>
@@ -6542,7 +6531,7 @@
         <v>934</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C226">
         <v>415</v>
@@ -6553,7 +6542,7 @@
         <v>194</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C227">
         <v>45</v>
@@ -6564,7 +6553,7 @@
         <v>932</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C228">
         <v>414</v>
@@ -6575,7 +6564,7 @@
         <v>944</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C229">
         <v>420</v>
@@ -6586,7 +6575,7 @@
         <v>956</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C230">
         <v>426</v>
@@ -6597,7 +6586,7 @@
         <v>172</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C231">
         <v>34</v>
@@ -6608,7 +6597,7 @@
         <v>566</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C232">
         <v>231</v>
@@ -6619,7 +6608,7 @@
         <v>596</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C233">
         <v>246</v>
@@ -6630,7 +6619,7 @@
         <v>582</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C234">
         <v>239</v>
@@ -6641,7 +6630,7 @@
         <v>594</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C235">
         <v>245</v>
@@ -6652,7 +6641,7 @@
         <v>576</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C236">
         <v>236</v>
@@ -6663,7 +6652,7 @@
         <v>590</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C237">
         <v>243</v>
@@ -6674,7 +6663,7 @@
         <v>552</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C238">
         <v>224</v>
@@ -6685,7 +6674,7 @@
         <v>174</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C239">
         <v>35</v>
@@ -6696,7 +6685,7 @@
         <v>322</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C240">
         <v>109</v>
@@ -6707,7 +6696,7 @@
         <v>278</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C241">
         <v>87</v>
@@ -6718,7 +6707,7 @@
         <v>346</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C242">
         <v>121</v>
@@ -6729,7 +6718,7 @@
         <v>300</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C243">
         <v>98</v>
@@ -6740,7 +6729,7 @@
         <v>284</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C244">
         <v>90</v>
@@ -6751,7 +6740,7 @@
         <v>338</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C245">
         <v>117</v>
@@ -6762,7 +6751,7 @@
         <v>302</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C246">
         <v>99</v>
@@ -6773,7 +6762,7 @@
         <v>316</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C247">
         <v>106</v>
@@ -6784,7 +6773,7 @@
         <v>336</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C248">
         <v>116</v>
@@ -6795,7 +6784,7 @@
         <v>288</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C249">
         <v>92</v>
@@ -6806,7 +6795,7 @@
         <v>272</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C250">
         <v>84</v>
@@ -6817,7 +6806,7 @@
         <v>276</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C251">
         <v>86</v>
@@ -6828,7 +6817,7 @@
         <v>304</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C252">
         <v>100</v>
@@ -6839,7 +6828,7 @@
         <v>142</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C253">
         <v>19</v>
@@ -6850,7 +6839,7 @@
         <v>556</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C254">
         <v>226</v>
@@ -6861,7 +6850,7 @@
         <v>584</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C255">
         <v>240</v>
@@ -6872,7 +6861,7 @@
         <v>588</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C256">
         <v>242</v>
@@ -6883,7 +6872,7 @@
         <v>528</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C257">
         <v>212</v>
@@ -6894,7 +6883,7 @@
         <v>572</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C258">
         <v>234</v>
@@ -6905,7 +6894,7 @@
         <v>574</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C259">
         <v>235</v>
@@ -6916,7 +6905,7 @@
         <v>628</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C260">
         <v>262</v>
@@ -6927,7 +6916,7 @@
         <v>504</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C261">
         <v>200</v>
@@ -6938,7 +6927,7 @@
         <v>548</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C262">
         <v>222</v>
@@ -6949,7 +6938,7 @@
         <v>536</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C263">
         <v>216</v>
@@ -6960,7 +6949,7 @@
         <v>650</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C264">
         <v>273</v>
@@ -6971,7 +6960,7 @@
         <v>524</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C265">
         <v>210</v>
@@ -6982,7 +6971,7 @@
         <v>530</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C266">
         <v>213</v>
@@ -6993,7 +6982,7 @@
         <v>602</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C267">
         <v>249</v>
@@ -7004,7 +6993,7 @@
         <v>586</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C268">
         <v>241</v>
@@ -7015,7 +7004,7 @@
         <v>108</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C269">
         <v>2</v>
@@ -7026,7 +7015,7 @@
         <v>770</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C270">
         <v>333</v>
@@ -7037,7 +7026,7 @@
         <v>792</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C271">
         <v>344</v>
@@ -7048,7 +7037,7 @@
         <v>838</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C272">
         <v>367</v>
@@ -7059,7 +7048,7 @@
         <v>868</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C273">
         <v>382</v>
@@ -7070,7 +7059,7 @@
         <v>796</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C274">
         <v>346</v>
@@ -7081,7 +7070,7 @@
         <v>808</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C275">
         <v>352</v>
@@ -7092,7 +7081,7 @@
         <v>844</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C276">
         <v>370</v>
@@ -7103,7 +7092,7 @@
         <v>110</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C277">
         <v>3</v>
@@ -7114,7 +7103,7 @@
         <v>550</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C278">
         <v>223</v>
@@ -7125,7 +7114,7 @@
         <v>560</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C279">
         <v>228</v>
@@ -7136,7 +7125,7 @@
         <v>604</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C280">
         <v>250</v>
@@ -7147,7 +7136,7 @@
         <v>514</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C281">
         <v>205</v>
@@ -7158,7 +7147,7 @@
         <v>496</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C282">
         <v>196</v>
@@ -7169,7 +7158,7 @@
         <v>112</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C283">
         <v>4</v>
@@ -7180,7 +7169,7 @@
         <v>416</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C284">
         <v>156</v>
@@ -7191,7 +7180,7 @@
         <v>384</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C285">
         <v>140</v>
@@ -7202,7 +7191,7 @@
         <v>364</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C286">
         <v>130</v>
@@ -7213,7 +7202,7 @@
         <v>360</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C287">
         <v>128</v>
@@ -7224,7 +7213,7 @@
         <v>392</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C288">
         <v>144</v>
@@ -7235,7 +7224,7 @@
         <v>436</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C289">
         <v>166</v>
@@ -7246,7 +7235,7 @@
         <v>408</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C290">
         <v>152</v>
@@ -7257,7 +7246,7 @@
         <v>114</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C291">
         <v>5</v>
@@ -7268,7 +7257,7 @@
         <v>406</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C292">
         <v>151</v>
@@ -7279,7 +7268,7 @@
         <v>438</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C293">
         <v>167</v>
@@ -7290,7 +7279,7 @@
         <v>480</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C294">
         <v>188</v>
@@ -7301,7 +7290,7 @@
         <v>430</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C295">
         <v>163</v>
@@ -7312,7 +7301,7 @@
         <v>520</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C296">
         <v>208</v>
@@ -7323,7 +7312,7 @@
         <v>412</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C297">
         <v>154</v>
@@ -7334,7 +7323,7 @@
         <v>400</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C298">
         <v>148</v>
@@ -7345,7 +7334,7 @@
         <v>474</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C299">
         <v>185</v>
@@ -7356,7 +7345,7 @@
         <v>444</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C300">
         <v>170</v>
@@ -7367,7 +7356,7 @@
         <v>460</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C301">
         <v>178</v>
@@ -7378,7 +7367,7 @@
         <v>470</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C302">
         <v>183</v>
@@ -7389,7 +7378,7 @@
         <v>450</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C303">
         <v>173</v>
@@ -7400,7 +7389,7 @@
         <v>410</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C304">
         <v>153</v>
@@ -7411,7 +7400,7 @@
         <v>486</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C305">
         <v>191</v>
@@ -7422,7 +7411,7 @@
         <v>458</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C306">
         <v>177</v>
@@ -7433,7 +7422,7 @@
         <v>422</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C307">
         <v>159</v>
@@ -7444,7 +7433,7 @@
         <v>398</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C308">
         <v>147</v>
@@ -7455,7 +7444,7 @@
         <v>414</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C309">
         <v>155</v>
@@ -7466,7 +7455,7 @@
         <v>440</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C310">
         <v>168</v>
@@ -7477,7 +7466,7 @@
         <v>432</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C311">
         <v>164</v>
@@ -7488,7 +7477,7 @@
         <v>418</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C312">
         <v>157</v>
@@ -7499,7 +7488,7 @@
         <v>464</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C313">
         <v>180</v>
@@ -7510,7 +7499,7 @@
         <v>116</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C314">
         <v>6</v>
@@ -7521,7 +7510,7 @@
         <v>972</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C315">
         <v>434</v>
@@ -7532,7 +7521,7 @@
         <v>936</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C316">
         <v>416</v>
@@ -7543,7 +7532,7 @@
         <v>950</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C317">
         <v>423</v>
@@ -7554,7 +7543,7 @@
         <v>986</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C318">
         <v>441</v>
@@ -7565,7 +7554,7 @@
         <v>938</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C319">
         <v>417</v>
@@ -7576,7 +7565,7 @@
         <v>118</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C320">
         <v>7</v>
@@ -7587,7 +7576,7 @@
         <v>696</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C321">
         <v>296</v>
@@ -7598,7 +7587,7 @@
         <v>632</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C322">
         <v>264</v>
@@ -7609,7 +7598,7 @@
         <v>664</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C323">
         <v>280</v>
@@ -7620,7 +7609,7 @@
         <v>668</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C324">
         <v>282</v>
@@ -7631,7 +7620,7 @@
         <v>622</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C325">
         <v>259</v>
@@ -7642,7 +7631,7 @@
         <v>662</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C326">
         <v>279</v>
@@ -7653,7 +7642,7 @@
         <v>616</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C327">
         <v>256</v>
@@ -7664,7 +7653,7 @@
         <v>638</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C328">
         <v>267</v>
@@ -7675,7 +7664,7 @@
         <v>120</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C329">
         <v>8</v>
@@ -7686,7 +7675,7 @@
         <v>232</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C330">
         <v>64</v>
@@ -7697,7 +7686,7 @@
         <v>218</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C331">
         <v>57</v>
@@ -7708,7 +7697,7 @@
         <v>228</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C332">
         <v>62</v>
@@ -7719,7 +7708,7 @@
         <v>246</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C333">
         <v>71</v>
@@ -7730,7 +7719,7 @@
         <v>222</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C334">
         <v>59</v>
@@ -7741,7 +7730,7 @@
         <v>290</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C335">
         <v>93</v>
@@ -7752,7 +7741,7 @@
         <v>274</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C336">
         <v>85</v>
@@ -7763,7 +7752,7 @@
         <v>244</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C337">
         <v>70</v>
@@ -7774,7 +7763,7 @@
         <v>226</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C338">
         <v>61</v>
@@ -7785,7 +7774,7 @@
         <v>266</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C339">
         <v>81</v>
@@ -7796,7 +7785,7 @@
         <v>286</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C340">
         <v>91</v>
@@ -7807,7 +7796,7 @@
         <v>974</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C341">
         <v>435</v>
@@ -7818,7 +7807,7 @@
         <v>260</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C342">
         <v>78</v>
@@ -7829,7 +7818,7 @@
         <v>202</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C343">
         <v>49</v>
@@ -7840,7 +7829,7 @@
         <v>180</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C344">
         <v>38</v>
@@ -7851,7 +7840,7 @@
         <v>242</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C345">
         <v>69</v>
@@ -7862,7 +7851,7 @@
         <v>254</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C346">
         <v>75</v>
@@ -7873,7 +7862,7 @@
         <v>236</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C347">
         <v>66</v>
@@ -7884,7 +7873,7 @@
         <v>270</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C348">
         <v>83</v>
@@ -7895,7 +7884,7 @@
         <v>122</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C349">
         <v>9</v>
@@ -7906,7 +7895,7 @@
         <v>370</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C350">
         <v>133</v>
@@ -7917,7 +7906,7 @@
         <v>390</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C351">
         <v>143</v>
@@ -7928,7 +7917,7 @@
         <v>368</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C352">
         <v>132</v>
@@ -7939,7 +7928,7 @@
         <v>374</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C353">
         <v>135</v>
@@ -7950,7 +7939,7 @@
         <v>350</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C354">
         <v>123</v>
@@ -7961,7 +7950,7 @@
         <v>340</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C355">
         <v>118</v>
@@ -7972,7 +7961,7 @@
         <v>376</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C356">
         <v>136</v>
@@ -7983,7 +7972,7 @@
         <v>362</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C357">
         <v>129</v>
@@ -7994,7 +7983,7 @@
         <v>314</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C358">
         <v>105</v>
@@ -8005,7 +7994,7 @@
         <v>312</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C359">
         <v>104</v>
@@ -8016,7 +8005,7 @@
         <v>318</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C360">
         <v>107</v>
@@ -8027,7 +8016,7 @@
         <v>124</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C361">
         <v>10</v>
@@ -8038,7 +8027,7 @@
         <v>646</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C362">
         <v>271</v>
@@ -8049,7 +8038,7 @@
         <v>626</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C363">
         <v>261</v>
@@ -8060,7 +8049,7 @@
         <v>656</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C364">
         <v>276</v>
@@ -8071,7 +8060,7 @@
         <v>624</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C365">
         <v>260</v>
@@ -8082,7 +8071,7 @@
         <v>680</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C366">
         <v>288</v>
@@ -8093,7 +8082,7 @@
         <v>630</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C367">
         <v>263</v>
@@ -8104,7 +8093,7 @@
         <v>634</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C368">
         <v>265</v>
@@ -8115,7 +8104,7 @@
         <v>126</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C369">
         <v>11</v>
@@ -8126,7 +8115,7 @@
         <v>564</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C370">
         <v>230</v>
@@ -8137,7 +8126,7 @@
         <v>578</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C371">
         <v>237</v>
@@ -8148,7 +8137,7 @@
         <v>600</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C372">
         <v>248</v>
@@ -8159,7 +8148,7 @@
         <v>592</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C373">
         <v>244</v>
@@ -8170,7 +8159,7 @@
         <v>542</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C374">
         <v>219</v>
@@ -8181,7 +8170,7 @@
         <v>636</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C375">
         <v>266</v>
@@ -8192,7 +8181,7 @@
         <v>580</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C376">
         <v>238</v>
@@ -8203,7 +8192,7 @@
         <v>570</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C377">
         <v>233</v>
@@ -8214,7 +8203,7 @@
         <v>618</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C378">
         <v>257</v>
@@ -8225,7 +8214,7 @@
         <v>554</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C379">
         <v>225</v>
@@ -8236,7 +8225,7 @@
         <v>128</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C380">
         <v>12</v>
@@ -8247,7 +8236,7 @@
         <v>746</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C381">
         <v>321</v>
@@ -8258,7 +8247,7 @@
         <v>720</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C382">
         <v>308</v>
@@ -8269,7 +8258,7 @@
         <v>694</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C383">
         <v>295</v>
@@ -8280,7 +8269,7 @@
         <v>764</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C384">
         <v>330</v>
@@ -8291,7 +8280,7 @@
         <v>762</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C385">
         <v>329</v>
@@ -8302,7 +8291,7 @@
         <v>732</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C386">
         <v>314</v>
@@ -8313,7 +8302,7 @@
         <v>682</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C387">
         <v>289</v>
@@ -8324,7 +8313,7 @@
         <v>130</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C388">
         <v>13</v>
@@ -8335,7 +8324,7 @@
         <v>670</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C389">
         <v>283</v>
@@ -8346,7 +8335,7 @@
         <v>734</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C390">
         <v>315</v>
@@ -8357,7 +8346,7 @@
         <v>690</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C391">
         <v>293</v>
@@ -8368,7 +8357,7 @@
         <v>706</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C392">
         <v>301</v>
@@ -8379,7 +8368,7 @@
         <v>754</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C393">
         <v>325</v>
@@ -8390,7 +8379,7 @@
         <v>742</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C394">
         <v>319</v>
@@ -8401,7 +8390,7 @@
         <v>718</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C395">
         <v>307</v>
@@ -8412,7 +8401,7 @@
         <v>132</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C396">
         <v>14</v>
@@ -8423,7 +8412,7 @@
         <v>802</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C397">
         <v>349</v>
@@ -8434,7 +8423,7 @@
         <v>790</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C398">
         <v>343</v>
@@ -8445,7 +8434,7 @@
         <v>898</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C399">
         <v>397</v>
@@ -8456,7 +8445,7 @@
         <v>766</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C400">
         <v>331</v>
@@ -8467,7 +8456,7 @@
         <v>896</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C401">
         <v>396</v>
@@ -8478,7 +8467,7 @@
         <v>866</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C402">
         <v>381</v>
@@ -8489,7 +8478,7 @@
         <v>752</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C403">
         <v>324</v>
@@ -8500,7 +8489,7 @@
         <v>776</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C404">
         <v>336</v>
@@ -8511,7 +8500,7 @@
         <v>830</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C405">
         <v>363</v>
@@ -8522,7 +8511,7 @@
         <v>916</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C406">
         <v>406</v>
@@ -8533,7 +8522,7 @@
         <v>878</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C407">
         <v>387</v>
@@ -8544,7 +8533,7 @@
         <v>842</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C408">
         <v>369</v>
@@ -8555,7 +8544,7 @@
         <v>768</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C409">
         <v>332</v>
@@ -8566,7 +8555,7 @@
         <v>876</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C410">
         <v>386</v>
@@ -8577,7 +8566,7 @@
         <v>798</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C411">
         <v>347</v>
@@ -8588,7 +8577,7 @@
         <v>736</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C412">
         <v>316</v>
@@ -8599,7 +8588,7 @@
         <v>894</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C413">
         <v>395</v>
@@ -8610,7 +8599,7 @@
         <v>134</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C414">
         <v>15</v>
@@ -8621,7 +8610,7 @@
         <v>282</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C415">
         <v>89</v>
@@ -8632,7 +8621,7 @@
         <v>224</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C416">
         <v>60</v>
@@ -8643,7 +8632,7 @@
         <v>280</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C417">
         <v>88</v>
@@ -8654,7 +8643,7 @@
         <v>262</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C418">
         <v>79</v>
@@ -8665,7 +8654,7 @@
         <v>238</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C419">
         <v>67</v>
@@ -8676,7 +8665,7 @@
         <v>136</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C420">
         <v>16</v>
@@ -8687,7 +8676,7 @@
         <v>426</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C421">
         <v>161</v>
@@ -8698,7 +8687,7 @@
         <v>456</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C422">
         <v>176</v>
@@ -8709,7 +8698,7 @@
         <v>518</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C423">
         <v>207</v>
@@ -8720,7 +8709,7 @@
         <v>386</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C424">
         <v>141</v>
@@ -8731,7 +8720,7 @@
         <v>500</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C425">
         <v>198</v>
@@ -8742,7 +8731,7 @@
         <v>492</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C426">
         <v>194</v>
@@ -8753,7 +8742,7 @@
         <v>472</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C427">
         <v>184</v>
@@ -8764,7 +8753,7 @@
         <v>454</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C428">
         <v>175</v>
@@ -8775,7 +8764,7 @@
         <v>402</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C429">
         <v>149</v>
@@ -8786,7 +8775,7 @@
         <v>138</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C430">
         <v>17</v>
@@ -8797,7 +8786,7 @@
         <v>212</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C431">
         <v>54</v>
@@ -8808,7 +8797,7 @@
         <v>958</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C432">
         <v>427</v>
@@ -8819,7 +8808,7 @@
         <v>220</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C433">
         <v>58</v>
@@ -8830,7 +8819,7 @@
         <v>248</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C434">
         <v>72</v>
@@ -8841,7 +8830,7 @@
         <v>186</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C435">
         <v>41</v>
@@ -8852,7 +8841,7 @@
         <v>192</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C436">
         <v>44</v>
@@ -8863,7 +8852,7 @@
         <v>188</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C437">
         <v>42</v>
@@ -8874,7 +8863,7 @@
         <v>216</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C438">
         <v>56</v>
@@ -8885,7 +8874,7 @@
         <v>982</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C439">
         <v>439</v>
@@ -8896,7 +8885,7 @@
         <v>978</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C440">
         <v>437</v>
@@ -8907,7 +8896,7 @@
         <v>980</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C441">
         <v>438</v>
@@ -8915,10 +8904,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B442" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C442">
         <v>3</v>
@@ -8926,10 +8915,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B443" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C443">
         <v>16</v>
@@ -8937,10 +8926,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B444" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C444">
         <v>14</v>
@@ -8948,10 +8937,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B445" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C445">
         <v>14</v>
@@ -8959,10 +8948,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B446" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C446">
         <v>15</v>
@@ -8970,10 +8959,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B447" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C447">
         <v>15</v>
@@ -8981,10 +8970,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B448" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C448">
         <v>3</v>
@@ -8992,10 +8981,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B449" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C449">
         <v>16</v>
@@ -9003,10 +8992,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B450" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C450">
         <v>16</v>
@@ -9014,10 +9003,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B451" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C451">
         <v>17</v>
@@ -9025,10 +9014,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B452" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C452">
         <v>17</v>
@@ -9036,10 +9025,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B453" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C453">
         <v>17</v>
@@ -9047,10 +9036,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B454" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C454">
         <v>14</v>
@@ -9058,10 +9047,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B455" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C455">
         <v>18</v>
@@ -9069,10 +9058,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B456" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C456">
         <v>18</v>
@@ -9080,10 +9069,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B457" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C457">
         <v>18</v>
@@ -9091,10 +9080,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B458" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C458">
         <v>18</v>
@@ -9102,10 +9091,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B459" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C459">
         <v>12</v>
@@ -9113,10 +9102,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B460" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C460">
         <v>13</v>
@@ -9124,10 +9113,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B461" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C461">
         <v>3</v>
@@ -9135,10 +9124,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B462" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C462">
         <v>18</v>
@@ -9146,10 +9135,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B463" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C463">
         <v>14</v>
@@ -9157,10 +9146,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B464" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C464">
         <v>17</v>
@@ -9168,10 +9157,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B465" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C465">
         <v>4</v>
@@ -9179,10 +9168,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B466" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C466">
         <v>5</v>
@@ -9190,10 +9179,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B467" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -9201,10 +9190,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B468" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C468">
         <v>15</v>
@@ -9212,10 +9201,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B469" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C469">
         <v>2</v>
@@ -9223,10 +9212,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B470" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C470">
         <v>3</v>
@@ -9234,10 +9223,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B471" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C471">
         <v>6</v>
@@ -9245,10 +9234,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B472" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C472">
         <v>3</v>
@@ -9256,10 +9245,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B473" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C473">
         <v>16</v>
@@ -9267,10 +9256,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B474" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C474">
         <v>14</v>
@@ -9281,7 +9270,7 @@
         <v>68</v>
       </c>
       <c r="B475" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C475">
         <v>15</v>
@@ -9289,10 +9278,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B476" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C476">
         <v>15</v>
@@ -9300,10 +9289,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B477" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C477">
         <v>15</v>
@@ -9311,10 +9300,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B478" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C478">
         <v>3</v>
@@ -9322,10 +9311,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B479" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C479">
         <v>3</v>
@@ -9333,10 +9322,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B480" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C480">
         <v>16</v>
@@ -9347,7 +9336,7 @@
         <v>71</v>
       </c>
       <c r="B481" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C481">
         <v>16</v>
@@ -9355,10 +9344,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B482" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C482">
         <v>16</v>
@@ -9366,10 +9355,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B483" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C483">
         <v>17</v>
@@ -9377,10 +9366,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B484" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C484">
         <v>18</v>
@@ -9391,7 +9380,7 @@
         <v>76</v>
       </c>
       <c r="B485" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C485">
         <v>18</v>
@@ -9399,10 +9388,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B486" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C486">
         <v>18</v>
@@ -9410,10 +9399,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B487" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C487">
         <v>18</v>
@@ -9421,10 +9410,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B488" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C488">
         <v>18</v>
@@ -9432,10 +9421,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B489" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C489">
         <v>16</v>
@@ -9443,10 +9432,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B490" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C490">
         <v>18</v>
@@ -9454,10 +9443,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B491" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C491">
         <v>16</v>
@@ -9465,10 +9454,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B492" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C492">
         <v>21</v>
@@ -9476,10 +9465,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B493" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C493">
         <v>21</v>
@@ -9487,10 +9476,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B494" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C494">
         <v>22</v>
@@ -9498,10 +9487,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B495" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C495">
         <v>20</v>
@@ -9509,10 +9498,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B496" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C496">
         <v>19</v>
@@ -9520,10 +9509,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B497" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C497">
         <v>23</v>
@@ -9531,10 +9520,10 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B498" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C498">
         <v>24</v>
@@ -9542,10 +9531,10 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B499" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C499">
         <v>7</v>
@@ -9553,10 +9542,10 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B500" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C500">
         <v>8</v>
@@ -9564,10 +9553,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B501" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C501">
         <v>10</v>
@@ -9575,10 +9564,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B502" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C502">
         <v>9</v>
@@ -9586,10 +9575,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B503" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C503">
         <v>11</v>
@@ -9597,10 +9586,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B504" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C504">
         <v>25</v>
@@ -9608,10 +9597,10 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B505" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C505">
         <v>26</v>
@@ -9619,10 +9608,10 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B506" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C506">
         <v>27</v>
@@ -39275,13 +39264,13 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -39290,14 +39279,14 @@
       </c>
       <c r="B2" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.574612500001</v>
+        <v>42429.621616319448</v>
       </c>
       <c r="C2" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.574612500001</v>
+        <v>42429.621616319448</v>
       </c>
       <c r="D2" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -39306,14 +39295,14 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.574612500001</v>
+        <v>42429.621616319448</v>
       </c>
       <c r="C3" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.574612500001</v>
+        <v>42429.621616319448</v>
       </c>
       <c r="D3" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
@@ -39326,53 +39315,53 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>1115</v>
+        <v>1056</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>105</v>
+        <v>1055</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>1011</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>1012</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -39383,7 +39372,7 @@
         <v>42370</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>953</v>
@@ -39416,7 +39405,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -39427,7 +39416,7 @@
         <v>42370</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>967</v>
@@ -39460,7 +39449,7 @@
         <v>7</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -39471,7 +39460,7 @@
         <v>42370</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>949</v>
@@ -39504,7 +39493,7 @@
         <v>8</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -39515,7 +39504,7 @@
         <v>42370</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>195</v>
@@ -39548,7 +39537,7 @@
         <v>7</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -39559,7 +39548,7 @@
         <v>42370</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>945</v>
@@ -39592,7 +39581,7 @@
         <v>6</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -39603,7 +39592,7 @@
         <v>42370</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>957</v>
@@ -39636,7 +39625,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -39647,7 +39636,7 @@
         <v>42370</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>961</v>
@@ -39680,7 +39669,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -39691,7 +39680,7 @@
         <v>42370</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>963</v>
@@ -39724,7 +39713,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -39735,7 +39724,7 @@
         <v>42370</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>185</v>
@@ -39768,7 +39757,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -39779,7 +39768,7 @@
         <v>42370</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>179</v>
@@ -39812,7 +39801,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -39823,7 +39812,7 @@
         <v>42370</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>199</v>
@@ -39856,7 +39845,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -39867,7 +39856,7 @@
         <v>42370</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>205</v>
@@ -39900,7 +39889,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -39911,7 +39900,7 @@
         <v>42370</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>933</v>
@@ -39944,7 +39933,7 @@
         <v>2</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -39954,98 +39943,109 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>992</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>993</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>994</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>999</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="O1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="C2" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>952</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>953</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1003</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K2" s="10">
+        <v>1002</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M2" s="10">
         <v>0</v>
-      </c>
-      <c r="L2" s="10">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>1004</v>
       </c>
       <c r="N2" s="10">
         <v>1</v>
@@ -40053,46 +40053,52 @@
       <c r="O2" s="6" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="P2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>967</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1003</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K3" s="10">
+        <v>1002</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M3" s="10">
         <v>0</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>1004</v>
       </c>
       <c r="N3" s="10">
         <v>1</v>
@@ -40100,46 +40106,52 @@
       <c r="O3" s="6" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="P3" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>949</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1003</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K4" s="10">
+        <v>1002</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M4" s="10">
         <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>1004</v>
       </c>
       <c r="N4" s="10">
         <v>1</v>
@@ -40147,475 +40159,541 @@
       <c r="O4" s="6" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="P4" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="C6" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="C7" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P7" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="C8" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="L8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="C9" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="L9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M9" s="10">
         <v>0</v>
       </c>
-      <c r="L5" s="10">
+      <c r="N9" s="10">
         <v>0</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N5" s="10">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>945</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="O9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="F10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M10" s="10">
         <v>0</v>
       </c>
-      <c r="L6" s="10">
+      <c r="N10" s="10">
         <v>0</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N6" s="10">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="O10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="F11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M11" s="10">
         <v>0</v>
       </c>
-      <c r="L7" s="10">
+      <c r="N11" s="10">
         <v>0</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N7" s="10">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>960</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>961</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="O11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="F12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M12" s="10">
         <v>0</v>
       </c>
-      <c r="L8" s="10">
+      <c r="N12" s="10">
         <v>0</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0.98</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>963</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="O12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P12" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K9" s="10">
+      <c r="F13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M13" s="10">
         <v>0</v>
       </c>
-      <c r="L9" s="10">
+      <c r="N13" s="10">
         <v>0</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0.98</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="O13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P13" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="C14" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K10" s="10">
+      <c r="F14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M14" s="10">
         <v>0</v>
       </c>
-      <c r="L10" s="10">
+      <c r="N14" s="10">
         <v>0</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N10" s="10">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N11" s="10">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N12" s="10">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N13" s="10">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N14" s="10">
-        <v>1</v>
-      </c>
       <c r="O14" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
+      </c>
+      <c r="P14" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -40625,388 +40703,426 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>1014</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>990</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>1016</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>1017</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>1018</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>1019</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>952</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E2" s="10">
         <v>9.544787077826726E-2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="F2" s="10">
         <v>1362</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G2" s="10">
         <v>20</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="10">
         <v>93</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>17</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>7</v>
       </c>
-      <c r="J2" s="10">
+      <c r="K2" s="10">
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>966</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E3" s="10">
         <v>6.8917018284106887E-2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="F3" s="10">
         <v>1422</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="10">
         <v>20</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>47</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>9</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="10">
         <v>22</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E4" s="10">
         <v>4.1791044776119404E-2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F4" s="10">
         <v>1005</v>
       </c>
-      <c r="F4" s="10">
+      <c r="G4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>41</v>
       </c>
-      <c r="H4" s="10">
-        <v>1</v>
-      </c>
       <c r="I4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E5" s="10">
         <v>5.430549545651233E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="F5" s="10">
         <v>4622</v>
       </c>
-      <c r="F5" s="10">
+      <c r="G5" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>187</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <v>57</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <v>5</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>944</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E6" s="10">
         <v>0.12206832871652816</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F6" s="10">
         <v>5415</v>
       </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
       <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
         <v>526</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>120</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <v>14</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E7" s="10">
         <v>0.36244541484716158</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F7" s="10">
         <v>4809</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <v>290</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="10">
         <v>50</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <v>37</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <v>5366</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>960</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E8" s="10">
         <v>9.4527363184079602E-2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="10">
         <v>201</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>13</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <v>6</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
       </c>
       <c r="J8" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>962</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E9" s="10">
         <v>0.10802223987291501</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F9" s="10">
         <v>1259</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>129</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <v>7</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
       </c>
       <c r="J9" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E10" s="10">
         <v>0.11091772151898734</v>
       </c>
-      <c r="E10" s="10">
+      <c r="F10" s="10">
         <v>6320</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="10">
         <v>35</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>475</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <v>99</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="10">
         <v>92</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K10" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E11" s="10">
         <v>5.7692307692307696E-2</v>
       </c>
-      <c r="E11" s="10">
+      <c r="F11" s="10">
         <v>312</v>
       </c>
-      <c r="F11" s="10">
+      <c r="G11" s="10">
         <v>0</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <v>16</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
         <v>0</v>
       </c>
-      <c r="I11" s="10">
+      <c r="J11" s="10">
         <v>2</v>
       </c>
-      <c r="J11" s="10">
+      <c r="K11" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E12" s="10">
         <v>4.3763676148796497E-3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="F12" s="10">
         <v>457</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G12" s="10">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <v>2</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0</v>
       </c>
       <c r="I12" s="10">
         <v>0</v>
@@ -41014,68 +41130,77 @@
       <c r="J12" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E13" s="10">
         <v>4.4378698224852069E-2</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="10">
         <v>338</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>14</v>
       </c>
-      <c r="H13" s="10">
-        <v>1</v>
-      </c>
       <c r="I13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>932</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
+        <v>42005</v>
+      </c>
+      <c r="E14" s="10">
         <v>4.8209366391184574E-2</v>
       </c>
-      <c r="E14" s="10">
+      <c r="F14" s="10">
         <v>726</v>
       </c>
-      <c r="F14" s="10">
+      <c r="G14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <v>16</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I14" s="10">
         <v>8</v>
       </c>
-      <c r="I14" s="10">
+      <c r="J14" s="10">
         <v>11</v>
       </c>
-      <c r="J14" s="10">
+      <c r="K14" s="10">
         <v>0</v>
       </c>
     </row>
@@ -42013,10 +42138,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -42261,16 +42386,16 @@
         <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -42281,7 +42406,7 @@
         <v>106</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>107</v>
@@ -51542,7 +51667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -51554,13 +51679,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="B1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C1" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51571,7 +51696,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51582,7 +51707,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51593,7 +51718,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51604,7 +51729,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51615,7 +51740,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51626,7 +51751,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51637,7 +51762,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51648,7 +51773,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51659,7 +51784,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51670,7 +51795,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51681,7 +51806,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51692,7 +51817,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51703,7 +51828,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51714,7 +51839,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51725,7 +51850,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51736,7 +51861,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51747,7 +51872,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51758,7 +51883,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51769,7 +51894,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51780,7 +51905,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51791,7 +51916,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51802,7 +51927,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51813,7 +51938,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51824,7 +51949,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51835,7 +51960,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51846,7 +51971,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51857,7 +51982,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51868,7 +51993,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51879,7 +52004,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51890,7 +52015,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51901,7 +52026,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51912,7 +52037,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51923,7 +52048,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51934,7 +52059,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51945,7 +52070,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51956,7 +52081,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51967,7 +52092,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51978,7 +52103,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -51989,7 +52114,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52000,7 +52125,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52011,7 +52136,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52022,7 +52147,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52033,7 +52158,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52044,7 +52169,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52055,7 +52180,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52066,7 +52191,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52077,7 +52202,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52088,7 +52213,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52099,7 +52224,7 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52110,7 +52235,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52121,7 +52246,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52132,7 +52257,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52143,7 +52268,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52154,7 +52279,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52165,7 +52290,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52176,7 +52301,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52187,7 +52312,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52198,7 +52323,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52209,7 +52334,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52220,7 +52345,7 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52231,7 +52356,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52242,7 +52367,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52253,7 +52378,7 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52264,7 +52389,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52275,7 +52400,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52286,7 +52411,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52297,7 +52422,7 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52308,7 +52433,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52319,7 +52444,7 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52330,7 +52455,7 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52341,7 +52466,7 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52352,7 +52477,7 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52363,7 +52488,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52374,7 +52499,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52385,7 +52510,7 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52396,7 +52521,7 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52407,7 +52532,7 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52418,7 +52543,7 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52429,7 +52554,7 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52440,7 +52565,7 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52451,7 +52576,7 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52462,7 +52587,7 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52473,7 +52598,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52484,7 +52609,7 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52495,7 +52620,7 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52506,7 +52631,7 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52517,7 +52642,7 @@
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52528,7 +52653,7 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52539,7 +52664,7 @@
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52550,7 +52675,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52561,7 +52686,7 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52572,7 +52697,7 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52583,7 +52708,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -52594,7 +52719,7 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -52628,7 +52753,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -52636,7 +52761,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -52644,7 +52769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -52652,7 +52777,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -52677,25 +52802,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="G1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -52706,7 +52831,7 @@
         <v>42035</v>
       </c>
       <c r="C2" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -52729,7 +52854,7 @@
         <v>42063</v>
       </c>
       <c r="C3" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -52752,7 +52877,7 @@
         <v>42094</v>
       </c>
       <c r="C4" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -52775,7 +52900,7 @@
         <v>42124</v>
       </c>
       <c r="C5" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -52798,7 +52923,7 @@
         <v>42155</v>
       </c>
       <c r="C6" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -52821,7 +52946,7 @@
         <v>42185</v>
       </c>
       <c r="C7" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -52844,7 +52969,7 @@
         <v>42216</v>
       </c>
       <c r="C8" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -52867,7 +52992,7 @@
         <v>42247</v>
       </c>
       <c r="C9" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -52890,7 +53015,7 @@
         <v>42277</v>
       </c>
       <c r="C10" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -52913,7 +53038,7 @@
         <v>42308</v>
       </c>
       <c r="C11" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -52936,7 +53061,7 @@
         <v>42338</v>
       </c>
       <c r="C12" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -52959,7 +53084,7 @@
         <v>42369</v>
       </c>
       <c r="C13" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -52982,7 +53107,7 @@
         <v>42398</v>
       </c>
       <c r="C14" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D14">
         <v>1</v>

--- a/initial_data.xlsx
+++ b/initial_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_tag" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="cache_job" sheetId="17" r:id="rId13"/>
     <sheet name="source-data_intra-campaign-hist" sheetId="7" r:id="rId14"/>
     <sheet name="source-data_pre-campaign-histor" sheetId="6" r:id="rId15"/>
-    <sheet name="source-data_post-campaign-histo" sheetId="8" r:id="rId16"/>
+    <sheet name="custom_chart" sheetId="19" r:id="rId16"/>
+    <sheet name="source-data_post-campaign-histo" sheetId="8" r:id="rId17"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="1126">
   <si>
     <t>tag_name</t>
   </si>
@@ -3393,13 +3394,37 @@
   </si>
   <si>
     <t>location_attribute_type</t>
+  </si>
+  <si>
+    <t>chart_title</t>
+  </si>
+  <si>
+    <t>chart_json</t>
+  </si>
+  <si>
+    <t>{"startDate":"2015-01-01","z":0,"endDate":"2015-01-01","countries":[],"location_id":1,"timeRange":null,"locations":"sublocations","y":0,"x":21,"indicators":[21],"title":"Percent Miissed Children ( Outside Sample ) ","location_ids":[432,428,429,40,424,37,351,431,47,50,422,415,45,414,420,426],"yFormat":"%","type":"ChoroplethMap","groupBy":"indicator","xFormat":"%"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Missed Children ( Outside Sampe ) </t>
+  </si>
+  <si>
+    <t>{"startDate":"2015-02-28","z":0,"endDate":"2016-02-29","countries":[],"location_id":1,"timeRange":null,"locations":"selected","y":20,"x":13,"indicators":[13,20],"title":"Post Campaign Table","location_ids":[33,424,1,432,428,429,40,37,351,431,47,50,422,415,45,414,420,426],"yFormat":",.0f","type":"TableChart","groupBy":"indicator","xFormat":",.0f"}</t>
+  </si>
+  <si>
+    <t>Post Campaign Tabe</t>
+  </si>
+  <si>
+    <t>{"countries":[],"endDate":"2015-01-01","groupBy":"indicator","indicators":[21],"location_id":1,"location_ids":[424],"locations":"sublocations","startDate":"2015-01-01","timeRange":null,"title":"Percent Miissed Children Line Chart","type":"LineChart","x":21,"xFormat":"%","y":0,"yFormat":"%","z":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trend -- Percent Missed Children ( Outside Sampe ) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3433,6 +3458,16 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303942"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -3470,7 +3505,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3496,6 +3531,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -39279,11 +39316,11 @@
       </c>
       <c r="B2" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.621616319448</v>
+        <v>42429.656739120372</v>
       </c>
       <c r="C2" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.621616319448</v>
+        <v>42429.656739120372</v>
       </c>
       <c r="D2" t="s">
         <v>1110</v>
@@ -39295,11 +39332,11 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.621616319448</v>
+        <v>42429.656739120372</v>
       </c>
       <c r="C3" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.621616319448</v>
+        <v>42429.656739120372</v>
       </c>
       <c r="D3" t="s">
         <v>1110</v>
@@ -39945,8 +39982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -40702,6 +40739,68 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="G9" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>

--- a/initial_data.xlsx
+++ b/initial_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/code/rhizome/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dima/Dropbox/vhosts/clients/rhizome/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3396,9 +3396,6 @@
     <t>location_attribute_type</t>
   </si>
   <si>
-    <t>chart_title</t>
-  </si>
-  <si>
     <t>chart_json</t>
   </si>
   <si>
@@ -3418,6 +3415,9 @@
   </si>
   <si>
     <t xml:space="preserve">Trend -- Percent Missed Children ( Outside Sampe ) </t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -39316,11 +39316,11 @@
       </c>
       <c r="B2" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.656739120372</v>
+        <v>42429.474703125001</v>
       </c>
       <c r="C2" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.656739120372</v>
+        <v>42429.474703125001</v>
       </c>
       <c r="D2" t="s">
         <v>1110</v>
@@ -39332,11 +39332,11 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.656739120372</v>
+        <v>42429.474703125001</v>
       </c>
       <c r="C3" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.656739120372</v>
+        <v>42429.474703125001</v>
       </c>
       <c r="D3" t="s">
         <v>1110</v>
@@ -40743,7 +40743,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -40753,10 +40753,10 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C1" t="s">
         <v>1118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -40764,10 +40764,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -40775,10 +40775,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -40786,10 +40786,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31" x14ac:dyDescent="0.35">

--- a/initial_data.xlsx
+++ b/initial_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_tag" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,16 @@
     <sheet name="indicator" sheetId="3" r:id="rId4"/>
     <sheet name="indicator_to_tag" sheetId="10" r:id="rId5"/>
     <sheet name="location" sheetId="4" r:id="rId6"/>
-    <sheet name="location_attribute" sheetId="18" r:id="rId7"/>
-    <sheet name="campaign_type" sheetId="9" r:id="rId8"/>
-    <sheet name="campaign" sheetId="5" r:id="rId9"/>
-    <sheet name="auth_group" sheetId="12" r:id="rId10"/>
-    <sheet name="doc_detail_type" sheetId="15" r:id="rId11"/>
-    <sheet name="source_object_map" sheetId="16" r:id="rId12"/>
-    <sheet name="cache_job" sheetId="17" r:id="rId13"/>
-    <sheet name="source-data_intra-campaign-hist" sheetId="7" r:id="rId14"/>
-    <sheet name="source-data_pre-campaign-histor" sheetId="6" r:id="rId15"/>
-    <sheet name="custom_chart" sheetId="19" r:id="rId16"/>
-    <sheet name="source-data_post-campaign-histo" sheetId="8" r:id="rId17"/>
+    <sheet name="campaign_type" sheetId="9" r:id="rId7"/>
+    <sheet name="campaign" sheetId="5" r:id="rId8"/>
+    <sheet name="auth_group" sheetId="12" r:id="rId9"/>
+    <sheet name="doc_detail_type" sheetId="15" r:id="rId10"/>
+    <sheet name="source_object_map" sheetId="16" r:id="rId11"/>
+    <sheet name="cache_job" sheetId="17" r:id="rId12"/>
+    <sheet name="source-data_intra-campaign-hist" sheetId="7" r:id="rId13"/>
+    <sheet name="source-data_pre-campaign-histor" sheetId="6" r:id="rId14"/>
+    <sheet name="custom_chart" sheetId="19" r:id="rId15"/>
+    <sheet name="source-data_post-campaign-histo" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="1123">
   <si>
     <t>tag_name</t>
   </si>
@@ -3384,18 +3383,6 @@
     <t>Kandahar</t>
   </si>
   <si>
-    <t>LPD Status</t>
-  </si>
-  <si>
-    <t>location_id</t>
-  </si>
-  <si>
-    <t>location_attribute_value</t>
-  </si>
-  <si>
-    <t>location_attribute_type</t>
-  </si>
-  <si>
     <t>chart_json</t>
   </si>
   <si>
@@ -3418,6 +3405,9 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>lpd_status</t>
   </si>
 </sst>
 </file>
@@ -3888,80 +3878,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4074,7 +3990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8616"/>
   <sheetViews>
@@ -39283,7 +39199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -39316,11 +39232,11 @@
       </c>
       <c r="B2" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.474703125001</v>
+        <v>42429.506537037036</v>
       </c>
       <c r="C2" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.474703125001</v>
+        <v>42429.506537037036</v>
       </c>
       <c r="D2" t="s">
         <v>1110</v>
@@ -39332,11 +39248,11 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.474703125001</v>
+        <v>42429.506537037036</v>
       </c>
       <c r="C3" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.474703125001</v>
+        <v>42429.506537037036</v>
       </c>
       <c r="D3" t="s">
         <v>1110</v>
@@ -39347,7 +39263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
@@ -39978,7 +39894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -40738,11 +40654,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -40753,10 +40669,10 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -40764,10 +40680,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C2" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -40775,10 +40691,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C3" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -40786,10 +40702,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31" x14ac:dyDescent="0.35">
@@ -40800,7 +40716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -42466,18 +42382,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F442"/>
+  <dimension ref="A1:I442"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -42496,8 +42413,11 @@
       <c r="F1" s="1" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -42516,8 +42436,9 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -42537,8 +42458,9 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -42558,8 +42480,9 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -42579,8 +42502,9 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -42600,8 +42524,9 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -42621,8 +42546,9 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -42642,8 +42568,9 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -42663,8 +42590,9 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -42684,8 +42612,9 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -42705,8 +42634,9 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -42726,8 +42656,9 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -42747,8 +42678,9 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -42768,8 +42700,9 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -42789,8 +42722,9 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -42810,8 +42744,9 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -42831,8 +42766,9 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -42852,8 +42788,9 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -42873,8 +42810,9 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -42894,8 +42832,9 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -42915,8 +42854,9 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -42936,8 +42876,9 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -42957,8 +42898,9 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -42978,8 +42920,9 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -42999,8 +42942,9 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -43020,8 +42964,9 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -43041,8 +42986,9 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -43062,8 +43008,9 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -43083,8 +43030,9 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -43104,8 +43052,9 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -43125,8 +43074,9 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -43146,8 +43096,9 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -43167,8 +43118,9 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -43188,8 +43140,9 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -43209,8 +43162,9 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -43230,8 +43184,9 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -43251,8 +43206,9 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -43272,8 +43228,12 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G38" s="6">
+        <v>2</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -43293,8 +43253,9 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -43314,8 +43275,9 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -43335,8 +43297,12 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G41" s="6">
+        <v>2</v>
+      </c>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -43356,8 +43322,12 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G42" s="6">
+        <v>3</v>
+      </c>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -43377,8 +43347,12 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G43" s="6">
+        <v>2</v>
+      </c>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -43398,8 +43372,12 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -43419,8 +43397,12 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G45" s="6">
+        <v>3</v>
+      </c>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -43440,8 +43422,12 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -43461,8 +43447,12 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G47" s="6">
+        <v>3</v>
+      </c>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -43482,8 +43472,12 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G48" s="6">
+        <v>2</v>
+      </c>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -43503,8 +43497,9 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -43524,8 +43519,9 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -43545,8 +43541,12 @@
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G51" s="6">
+        <v>2</v>
+      </c>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -43566,8 +43566,9 @@
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -43587,8 +43588,9 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -43608,8 +43610,9 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -43629,8 +43632,12 @@
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G55" s="6">
+        <v>2</v>
+      </c>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -43650,8 +43657,12 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G56" s="6">
+        <v>2</v>
+      </c>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -43671,8 +43682,12 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G57" s="6">
+        <v>3</v>
+      </c>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -43692,8 +43707,9 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -43713,8 +43729,12 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G59" s="6">
+        <v>3</v>
+      </c>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -43734,8 +43754,9 @@
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -43755,8 +43776,12 @@
       <c r="F61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -43776,8 +43801,9 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -43797,8 +43823,9 @@
       <c r="F63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -43818,8 +43845,9 @@
       <c r="F64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -43839,8 +43867,12 @@
       <c r="F65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G65" s="6">
+        <v>2</v>
+      </c>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -43860,8 +43892,12 @@
       <c r="F66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G66" s="6">
+        <v>2</v>
+      </c>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -43881,8 +43917,9 @@
       <c r="F67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
@@ -43902,8 +43939,12 @@
       <c r="F68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G68" s="6">
+        <v>2</v>
+      </c>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -43923,8 +43964,12 @@
       <c r="F69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -43944,8 +43989,9 @@
       <c r="F70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -43965,8 +44011,9 @@
       <c r="F71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -43986,8 +44033,9 @@
       <c r="F72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -44007,8 +44055,9 @@
       <c r="F73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -44028,8 +44077,9 @@
       <c r="F74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -44049,8 +44099,12 @@
       <c r="F75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G75" s="6">
+        <v>2</v>
+      </c>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -44070,8 +44124,9 @@
       <c r="F76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -44091,8 +44146,9 @@
       <c r="F77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -44112,8 +44168,12 @@
       <c r="F78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G78" s="6">
+        <v>3</v>
+      </c>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -44133,8 +44193,9 @@
       <c r="F79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -44154,8 +44215,12 @@
       <c r="F80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G80" s="6">
+        <v>3</v>
+      </c>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -44175,8 +44240,12 @@
       <c r="F81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G81" s="6">
+        <v>1</v>
+      </c>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -44196,8 +44265,9 @@
       <c r="F82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -44217,8 +44287,12 @@
       <c r="F83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G83" s="6">
+        <v>3</v>
+      </c>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -44238,8 +44312,9 @@
       <c r="F84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -44259,8 +44334,9 @@
       <c r="F85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -44280,8 +44356,9 @@
       <c r="F86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -44301,8 +44378,9 @@
       <c r="F87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -44322,8 +44400,9 @@
       <c r="F88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -44343,8 +44422,9 @@
       <c r="F89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -44364,8 +44444,12 @@
       <c r="F90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G90" s="6">
+        <v>3</v>
+      </c>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -44385,8 +44469,12 @@
       <c r="F91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G91" s="6">
+        <v>3</v>
+      </c>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -44406,8 +44494,9 @@
       <c r="F92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -44427,8 +44516,9 @@
       <c r="F93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -44448,8 +44538,9 @@
       <c r="F94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -44469,8 +44560,9 @@
       <c r="F95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -44491,7 +44583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -44512,7 +44604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -44533,7 +44625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -44554,7 +44646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -44575,7 +44667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -44595,8 +44687,11 @@
       <c r="F101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G101" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -44617,7 +44712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -44638,7 +44733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -44659,7 +44754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -44679,8 +44774,11 @@
       <c r="F105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G105" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -44701,7 +44799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -44722,7 +44820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -44743,7 +44841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -44763,8 +44861,11 @@
       <c r="F109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G109" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -44785,7 +44886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -44806,7 +44907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -44827,7 +44928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -44848,7 +44949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -44869,7 +44970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -44890,7 +44991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -44910,8 +45011,11 @@
       <c r="F116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G116" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -44932,7 +45036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -44952,8 +45056,11 @@
       <c r="F118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G118" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -44974,7 +45081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -44994,8 +45101,11 @@
       <c r="F120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G120" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -45016,7 +45126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -45037,7 +45147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -45058,7 +45168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -45079,7 +45189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -45100,7 +45210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -45121,7 +45231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -45142,7 +45252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -45162,8 +45272,11 @@
       <c r="F128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G128" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -45184,7 +45297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -45205,7 +45318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -45226,7 +45339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>131</v>
@@ -45247,7 +45360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -45267,8 +45380,11 @@
       <c r="F133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G133" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -45289,7 +45405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -45310,7 +45426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -45331,7 +45447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -45352,7 +45468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -45373,7 +45489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -45394,7 +45510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -45415,7 +45531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -45436,7 +45552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -45457,7 +45573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -45478,7 +45594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -45499,7 +45615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -45520,7 +45636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -45541,7 +45657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -45562,7 +45678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -45583,7 +45699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -45604,7 +45720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -45625,7 +45741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -45646,7 +45762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -45666,8 +45782,11 @@
       <c r="F152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G152" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -45688,7 +45807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -45708,8 +45827,11 @@
       <c r="F154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G154" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -45729,8 +45851,11 @@
       <c r="F155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G155" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -45751,7 +45876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -45772,7 +45897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -45792,8 +45917,11 @@
       <c r="F158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G158" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -45814,7 +45942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -45834,8 +45962,11 @@
       <c r="F160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G160" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -45856,7 +45987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -45877,7 +46008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -45898,7 +46029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -45919,7 +46050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -45939,8 +46070,11 @@
       <c r="F165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G165" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -45961,7 +46095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -45982,7 +46116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -46002,8 +46136,11 @@
       <c r="F168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G168" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -46024,7 +46161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -46045,7 +46182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -46066,7 +46203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -46087,7 +46224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -46108,7 +46245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -46129,7 +46266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -46150,7 +46287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -46171,7 +46308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -46192,7 +46329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -46212,8 +46349,11 @@
       <c r="F178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G178" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -46233,8 +46373,11 @@
       <c r="F179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G179" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -46255,7 +46398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -46275,8 +46418,11 @@
       <c r="F181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G181" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -46297,7 +46443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -46318,7 +46464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -46339,7 +46485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -46360,7 +46506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -46381,7 +46527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -46402,7 +46548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -46423,7 +46569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -46443,8 +46589,11 @@
       <c r="F189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G189" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -46465,7 +46614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -46485,8 +46634,11 @@
       <c r="F191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G191" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -46507,7 +46659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -46528,7 +46680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -46549,7 +46701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -46570,7 +46722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A196">
         <f t="shared" ref="A196:A259" si="3">A195+1</f>
         <v>195</v>
@@ -46591,7 +46743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -46612,7 +46764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -46633,7 +46785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -46654,7 +46806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -46675,7 +46827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -46695,8 +46847,11 @@
       <c r="F201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G201" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -46717,7 +46872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -46738,7 +46893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -46759,7 +46914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -46780,7 +46935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -46801,7 +46956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -46822,7 +46977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -46843,7 +46998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -46864,7 +47019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -46885,7 +47040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -46906,7 +47061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -46927,7 +47082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -46948,7 +47103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -46969,7 +47124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -46990,7 +47145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -47011,7 +47166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -47031,8 +47186,11 @@
       <c r="F217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G217" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -47053,7 +47211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -47074,7 +47232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -47095,7 +47253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -47116,7 +47274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -47137,7 +47295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -47157,8 +47315,11 @@
       <c r="F223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G223" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -47178,8 +47339,11 @@
       <c r="F224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G224" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -47200,7 +47364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -47221,7 +47385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -47241,8 +47405,11 @@
       <c r="F227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G227" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -47262,8 +47429,11 @@
       <c r="F228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G228" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -47284,7 +47454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -47305,7 +47475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -47326,7 +47496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -47347,7 +47517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -47368,7 +47538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -47389,7 +47559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -47409,8 +47579,11 @@
       <c r="F235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G235" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -47430,8 +47603,11 @@
       <c r="F236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G236" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -47451,8 +47627,11 @@
       <c r="F237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G237" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -47472,8 +47651,11 @@
       <c r="F238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G238" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -47494,7 +47676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -47515,7 +47697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -47535,8 +47717,11 @@
       <c r="F241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G241" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -47556,8 +47741,11 @@
       <c r="F242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G242" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -47577,8 +47765,11 @@
       <c r="F243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G243" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -47598,8 +47789,11 @@
       <c r="F244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G244" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -47620,7 +47814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -47641,7 +47835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -47662,7 +47856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -47683,7 +47877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -47704,7 +47898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -47725,7 +47919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -47746,7 +47940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -47767,7 +47961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -47788,7 +47982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -47809,7 +48003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -47830,7 +48024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -47851,7 +48045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -47872,7 +48066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -47893,7 +48087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A259">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -47914,7 +48108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A260">
         <f t="shared" ref="A260:A323" si="4">A259+1</f>
         <v>259</v>
@@ -47935,7 +48129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A261">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -47956,7 +48150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -47977,7 +48171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -47997,8 +48191,11 @@
       <c r="F263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G263" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -48019,7 +48216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -48040,7 +48237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -48061,7 +48258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -48082,7 +48279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -48103,7 +48300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -48123,8 +48320,11 @@
       <c r="F269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G269" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -48145,7 +48345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -48166,7 +48366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -48187,7 +48387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -48208,7 +48408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -48228,8 +48428,11 @@
       <c r="F274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G274" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -48250,7 +48453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -48271,7 +48474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -48292,7 +48495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -48313,7 +48516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -48334,7 +48537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -48355,7 +48558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -48375,8 +48578,11 @@
       <c r="F281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G281" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -48397,7 +48603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -48418,7 +48624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -48439,7 +48645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -48460,7 +48666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -48481,7 +48687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -48502,7 +48708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -48523,7 +48729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -48544,7 +48750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -48565,7 +48771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -48586,7 +48792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -48606,8 +48812,11 @@
       <c r="F292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G292" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -48628,7 +48837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -48649,7 +48858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -48670,7 +48879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -48691,7 +48900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -48711,8 +48920,11 @@
       <c r="F297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G297" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -48732,8 +48944,11 @@
       <c r="F298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G298" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -48754,7 +48969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -48775,7 +48990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -48796,7 +49011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -48817,7 +49032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -48838,7 +49053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -48858,8 +49073,11 @@
       <c r="F304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G304" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -48880,7 +49098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -48901,7 +49119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -48922,7 +49140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -48943,7 +49161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -48964,7 +49182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -48985,7 +49203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -49005,8 +49223,11 @@
       <c r="F311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G311" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -49027,7 +49248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -49048,7 +49269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -49069,7 +49290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -49090,7 +49311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -49111,7 +49332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -49132,7 +49353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -49153,7 +49374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -49174,7 +49395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -49195,7 +49416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -49216,7 +49437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -49237,7 +49458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A323">
         <f t="shared" si="4"/>
         <v>322</v>
@@ -49258,7 +49479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A324">
         <f t="shared" ref="A324:A387" si="5">A323+1</f>
         <v>323</v>
@@ -49279,7 +49500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A325">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -49300,7 +49521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A326">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -49321,7 +49542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -49342,7 +49563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -49362,8 +49583,11 @@
       <c r="F328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G328" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -49384,7 +49608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -49405,7 +49629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -49426,7 +49650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -49447,7 +49671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -49468,7 +49692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -49488,8 +49712,11 @@
       <c r="F334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G334" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -49510,7 +49737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -49531,7 +49758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -49552,7 +49779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -49573,7 +49800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -49594,7 +49821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -49615,7 +49842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -49636,7 +49863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -49657,7 +49884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -49678,7 +49905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -49699,7 +49926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -49719,8 +49946,11 @@
       <c r="F345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G345" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -49741,7 +49971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -49762,7 +49992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -49783,7 +50013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -49804,7 +50034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -49825,7 +50055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -49846,7 +50076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -49867,7 +50097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -49887,8 +50117,11 @@
       <c r="F353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G353" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -49909,7 +50142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -49930,7 +50163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -49951,7 +50184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -49972,7 +50205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -49993,7 +50226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -50014,7 +50247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -50035,7 +50268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -50056,7 +50289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -50077,7 +50310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -50098,7 +50331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -50119,7 +50352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -50140,7 +50373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -50161,7 +50394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A367">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -50182,7 +50415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A368">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -50203,7 +50436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A369">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -50224,7 +50457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A370">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -50245,7 +50478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A371">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -50266,7 +50499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A372">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -50287,7 +50520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A373">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -50308,7 +50541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A374">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -50329,7 +50562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A375">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -50350,7 +50583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A376">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -50371,7 +50604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A377">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -50392,7 +50625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A378">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -50413,7 +50646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A379">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -50434,7 +50667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A380">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -50455,7 +50688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A381">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -50476,7 +50709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A382">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -50497,7 +50730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A383">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -50517,8 +50750,11 @@
       <c r="F383">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G383" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A384">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -50875,7 +51111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A401">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -50896,7 +51132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A402">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -50917,7 +51153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A403">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -50938,7 +51174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A404">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -50959,7 +51195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A405">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -50980,7 +51216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A406">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -51001,7 +51237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A407">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -51022,7 +51258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A408">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -51043,7 +51279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A409">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -51064,7 +51300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A410">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -51085,7 +51321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A411">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -51106,7 +51342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A412">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -51127,7 +51363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A413">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -51148,7 +51384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A414">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -51169,7 +51405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A415">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -51189,8 +51425,11 @@
       <c r="F415">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G415" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A416">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -51211,7 +51450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A417">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -51232,7 +51471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A418">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -51252,8 +51491,11 @@
       <c r="F418">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G418" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A419">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -51273,8 +51515,11 @@
       <c r="F419">
         <v>1</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G419" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A420">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -51294,8 +51539,11 @@
       <c r="F420">
         <v>1</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G420" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A421">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -51315,8 +51563,11 @@
       <c r="F421">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G421" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A422">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -51336,8 +51587,11 @@
       <c r="F422">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G422" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A423">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -51357,8 +51611,11 @@
       <c r="F423">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G423" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A424">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -51379,7 +51636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A425">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -51399,8 +51656,11 @@
       <c r="F425">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G425" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A426">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -51420,8 +51680,11 @@
       <c r="F426">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G426" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A427">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -51441,8 +51704,11 @@
       <c r="F427">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G427" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A428">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -51462,8 +51728,11 @@
       <c r="F428">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G428" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A429">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -51483,8 +51752,11 @@
       <c r="F429">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G429" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A430">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -51504,8 +51776,11 @@
       <c r="F430">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G430" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A431">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -51525,8 +51800,11 @@
       <c r="F431">
         <v>1</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G431" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A432">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -51546,8 +51824,11 @@
       <c r="F432">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G432" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A433">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -51568,7 +51849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A434">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -51589,7 +51870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A435">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -51610,7 +51891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A436">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -51631,7 +51912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A437">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -51651,8 +51932,11 @@
       <c r="F437">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G437" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A438">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -51673,7 +51957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A439">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -51693,8 +51977,11 @@
       <c r="F439">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G439" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A440">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -51714,8 +52001,11 @@
       <c r="F440">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G440" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A441">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -51735,8 +52025,11 @@
       <c r="F441">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G441" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A442">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -51755,6 +52048,9 @@
       </c>
       <c r="F442">
         <v>1</v>
+      </c>
+      <c r="G442" s="6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -51763,1070 +52059,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C95"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>414</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>417</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>418</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>419</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>420</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>421</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>422</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>424</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>425</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>426</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>427</v>
-      </c>
-      <c r="B12" s="6">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>428</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>429</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>430</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>431</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>436</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>438</v>
-      </c>
-      <c r="B18" s="6">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>439</v>
-      </c>
-      <c r="B19" s="6">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>440</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>441</v>
-      </c>
-      <c r="B21" s="6">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>37</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>40</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>41</v>
-      </c>
-      <c r="B24" s="6">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>42</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>43</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>44</v>
-      </c>
-      <c r="B27" s="6">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>45</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>46</v>
-      </c>
-      <c r="B29" s="6">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>47</v>
-      </c>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>50</v>
-      </c>
-      <c r="B31" s="6">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>54</v>
-      </c>
-      <c r="B32" s="6">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>55</v>
-      </c>
-      <c r="B33" s="6">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>56</v>
-      </c>
-      <c r="B34" s="6">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>58</v>
-      </c>
-      <c r="B35" s="6">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>60</v>
-      </c>
-      <c r="B36" s="6">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>64</v>
-      </c>
-      <c r="B37" s="6">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>65</v>
-      </c>
-      <c r="B38" s="6">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>67</v>
-      </c>
-      <c r="B39" s="6">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>68</v>
-      </c>
-      <c r="B40" s="6">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>74</v>
-      </c>
-      <c r="B41" s="6">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>77</v>
-      </c>
-      <c r="B42" s="6">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>79</v>
-      </c>
-      <c r="B43" s="6">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>80</v>
-      </c>
-      <c r="B44" s="6">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>82</v>
-      </c>
-      <c r="B45" s="6">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>89</v>
-      </c>
-      <c r="B46" s="6">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>90</v>
-      </c>
-      <c r="B47" s="6">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>100</v>
-      </c>
-      <c r="B48" s="6">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>104</v>
-      </c>
-      <c r="B49" s="6">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>108</v>
-      </c>
-      <c r="B50" s="6">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>115</v>
-      </c>
-      <c r="B51" s="6">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>117</v>
-      </c>
-      <c r="B52" s="6">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>119</v>
-      </c>
-      <c r="B53" s="6">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>127</v>
-      </c>
-      <c r="B54" s="6">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>132</v>
-      </c>
-      <c r="B55" s="6">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>151</v>
-      </c>
-      <c r="B56" s="6">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>153</v>
-      </c>
-      <c r="B57" s="6">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>154</v>
-      </c>
-      <c r="B58" s="6">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>157</v>
-      </c>
-      <c r="B59" s="6">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>159</v>
-      </c>
-      <c r="B60" s="6">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>164</v>
-      </c>
-      <c r="B61" s="6">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>167</v>
-      </c>
-      <c r="B62" s="6">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>177</v>
-      </c>
-      <c r="B63" s="6">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>178</v>
-      </c>
-      <c r="B64" s="6">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>180</v>
-      </c>
-      <c r="B65" s="6">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>188</v>
-      </c>
-      <c r="B66" s="6">
-        <v>2</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>190</v>
-      </c>
-      <c r="B67" s="6">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>200</v>
-      </c>
-      <c r="B68" s="6">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>216</v>
-      </c>
-      <c r="B69" s="6">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>222</v>
-      </c>
-      <c r="B70" s="6">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>223</v>
-      </c>
-      <c r="B71" s="6">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>226</v>
-      </c>
-      <c r="B72" s="6">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>227</v>
-      </c>
-      <c r="B73" s="6">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>234</v>
-      </c>
-      <c r="B74" s="6">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>235</v>
-      </c>
-      <c r="B75" s="6">
-        <v>2</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>236</v>
-      </c>
-      <c r="B76" s="6">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>237</v>
-      </c>
-      <c r="B77" s="6">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>240</v>
-      </c>
-      <c r="B78" s="6">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>241</v>
-      </c>
-      <c r="B79" s="6">
-        <v>2</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>242</v>
-      </c>
-      <c r="B80" s="6">
-        <v>2</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>243</v>
-      </c>
-      <c r="B81" s="6">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>262</v>
-      </c>
-      <c r="B82" s="6">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>268</v>
-      </c>
-      <c r="B83" s="6">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>273</v>
-      </c>
-      <c r="B84" s="6">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>280</v>
-      </c>
-      <c r="B85" s="6">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>291</v>
-      </c>
-      <c r="B86" s="6">
-        <v>2</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>296</v>
-      </c>
-      <c r="B87" s="6">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>297</v>
-      </c>
-      <c r="B88" s="6">
-        <v>3</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>303</v>
-      </c>
-      <c r="B89" s="6">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>310</v>
-      </c>
-      <c r="B90" s="6">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>327</v>
-      </c>
-      <c r="B91" s="6">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>333</v>
-      </c>
-      <c r="B92" s="6">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>344</v>
-      </c>
-      <c r="B93" s="6">
-        <v>3</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>352</v>
-      </c>
-      <c r="B94" s="6">
-        <v>3</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>382</v>
-      </c>
-      <c r="B95" s="6">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -52884,7 +52116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -53227,4 +52459,78 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/initial_data.xlsx
+++ b/initial_data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dima/Dropbox/vhosts/clients/rhizome/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/code/rhizome/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_tag" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="indicator" sheetId="3" r:id="rId4"/>
     <sheet name="indicator_to_tag" sheetId="10" r:id="rId5"/>
     <sheet name="location" sheetId="4" r:id="rId6"/>
-    <sheet name="campaign_type" sheetId="9" r:id="rId7"/>
-    <sheet name="campaign" sheetId="5" r:id="rId8"/>
-    <sheet name="auth_group" sheetId="12" r:id="rId9"/>
-    <sheet name="doc_detail_type" sheetId="15" r:id="rId10"/>
-    <sheet name="source_object_map" sheetId="16" r:id="rId11"/>
-    <sheet name="cache_job" sheetId="17" r:id="rId12"/>
-    <sheet name="source-data_intra-campaign-hist" sheetId="7" r:id="rId13"/>
-    <sheet name="source-data_pre-campaign-histor" sheetId="6" r:id="rId14"/>
-    <sheet name="custom_chart" sheetId="19" r:id="rId15"/>
-    <sheet name="source-data_post-campaign-histo" sheetId="8" r:id="rId16"/>
+    <sheet name="datapoint_with_computed" sheetId="20" r:id="rId7"/>
+    <sheet name="campaign_type" sheetId="9" r:id="rId8"/>
+    <sheet name="campaign" sheetId="5" r:id="rId9"/>
+    <sheet name="auth_group" sheetId="12" r:id="rId10"/>
+    <sheet name="doc_detail_type" sheetId="15" r:id="rId11"/>
+    <sheet name="source_object_map" sheetId="16" r:id="rId12"/>
+    <sheet name="cache_job" sheetId="17" r:id="rId13"/>
+    <sheet name="custom_chart" sheetId="19" r:id="rId14"/>
+    <sheet name="source-data_intra-campaign-hist" sheetId="7" r:id="rId15"/>
+    <sheet name="source-data_pre-campaign-histor" sheetId="6" r:id="rId16"/>
+    <sheet name="source-data_post-campaign-histo" sheetId="8" r:id="rId17"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1130">
   <si>
     <t>tag_name</t>
   </si>
@@ -3408,6 +3409,27 @@
   </si>
   <si>
     <t>lpd_status</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>cache_job_Id</t>
+  </si>
+  <si>
+    <t>campaign_id</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>indicator_name</t>
+  </si>
+  <si>
+    <t>location_name</t>
+  </si>
+  <si>
+    <t>campaign_name</t>
   </si>
 </sst>
 </file>
@@ -3484,8 +3506,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3524,15 +3548,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3878,6 +3904,80 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3990,7 +4090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8616"/>
   <sheetViews>
@@ -39199,7 +39299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -39232,11 +39332,11 @@
       </c>
       <c r="B2" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.506537037036</v>
+        <v>42430.462691782406</v>
       </c>
       <c r="C2" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.506537037036</v>
+        <v>42430.462691782406</v>
       </c>
       <c r="D2" t="s">
         <v>1110</v>
@@ -39248,645 +39348,14 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.506537037036</v>
+        <v>42430.462691782406</v>
       </c>
       <c r="C3" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.506537037036</v>
+        <v>42430.462691782406</v>
       </c>
       <c r="D3" t="s">
         <v>1110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>1011</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>9</v>
-      </c>
-      <c r="B2" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>953</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.93175128299999999</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.45751116400000003</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0.82776713800000001</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0.68092942400000001</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0.30315546799999998</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.132785559</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0.28942163300000001</v>
-      </c>
-      <c r="M2" s="6">
-        <v>5</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>10</v>
-      </c>
-      <c r="B3" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>967</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>966</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.92731706999999997</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.684749108</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.78842665300000003</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.86370060400000004</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.50499575600000002</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.87669438600000005</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.19922045199999999</v>
-      </c>
-      <c r="M3" s="6">
-        <v>7</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>11</v>
-      </c>
-      <c r="B4" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>949</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.77017539000000002</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.60959730599999995</v>
-      </c>
-      <c r="H4" s="6">
-        <v>8.6094840000000006E-3</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.21138432300000001</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.475142974</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.35318346099999998</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.96924487299999995</v>
-      </c>
-      <c r="M4" s="6">
-        <v>8</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>12</v>
-      </c>
-      <c r="B5" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.67949911799999996</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.98780689700000002</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.342283271</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.30764573000000001</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.42363846100000002</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.53742198399999996</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.60442163500000001</v>
-      </c>
-      <c r="M5" s="6">
-        <v>7</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>13</v>
-      </c>
-      <c r="B6" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.36322991199999999</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.585966498</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.28058723299999999</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.57867705300000005</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.29612353400000002</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.502473104</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.96767113800000004</v>
-      </c>
-      <c r="M6" s="6">
-        <v>6</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>14</v>
-      </c>
-      <c r="B7" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>956</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.86703272099999995</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.96711685800000002</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.46170325800000001</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.17533649300000001</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.60445965599999996</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.89186230099999997</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0.53500187600000004</v>
-      </c>
-      <c r="M7" s="6">
-        <v>6</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>15</v>
-      </c>
-      <c r="B8" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>961</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>960</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.46587564199999998</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.22875558200000001</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.41388356900000001</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.340464712</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.15157773399999999</v>
-      </c>
-      <c r="K8" s="6">
-        <v>6.6392779999999998E-2</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.14471081699999999</v>
-      </c>
-      <c r="M8" s="6">
-        <v>3</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>16</v>
-      </c>
-      <c r="B9" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>963</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>962</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.46365853499999998</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.342374554</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.394213327</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.43185030200000002</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.25249787800000001</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.43834719300000002</v>
-      </c>
-      <c r="L9" s="6">
-        <v>9.9610225999999996E-2</v>
-      </c>
-      <c r="M9" s="6">
-        <v>4</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>17</v>
-      </c>
-      <c r="B10" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.38508769500000001</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.30479865299999997</v>
-      </c>
-      <c r="H10" s="6">
-        <v>4.3047420000000003E-3</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.10569216200000001</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0.237571487</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0.176591731</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.48462243700000002</v>
-      </c>
-      <c r="M10" s="6">
-        <v>4</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>18</v>
-      </c>
-      <c r="B11" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.33974955899999998</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.49390344899999999</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.17114163600000001</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.153822865</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0.211819231</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0.26871099199999998</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0.30221081799999999</v>
-      </c>
-      <c r="M11" s="6">
-        <v>4</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>19</v>
-      </c>
-      <c r="B12" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.18161495599999999</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.292983249</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.14029361700000001</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.28933852700000001</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0.14806176700000001</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0.251236552</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0.48383556900000002</v>
-      </c>
-      <c r="M12" s="6">
-        <v>3</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>20</v>
-      </c>
-      <c r="B13" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.43351636100000002</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.48355842900000001</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.230851629</v>
-      </c>
-      <c r="I13" s="6">
-        <v>8.7668247000000005E-2</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0.30222982799999998</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0.44593115100000003</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0.26750093800000002</v>
-      </c>
-      <c r="M13" s="6">
-        <v>3</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>21</v>
-      </c>
-      <c r="B14" s="15">
-        <v>42370</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.23293782099999999</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.11437779100000001</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.20694178499999999</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.170232356</v>
-      </c>
-      <c r="J14" s="6">
-        <v>7.5788866999999996E-2</v>
-      </c>
-      <c r="K14" s="6">
-        <v>3.3196389999999999E-2</v>
-      </c>
-      <c r="L14" s="6">
-        <v>7.2355407999999996E-2</v>
-      </c>
-      <c r="M14" s="6">
-        <v>2</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -39895,766 +39364,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>988</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>989</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>991</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>993</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>996</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>998</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>952</v>
-      </c>
-      <c r="C2" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>953</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M2" s="10">
-        <v>0</v>
-      </c>
-      <c r="N2" s="10">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="P2" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="C3" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>967</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="P3" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>948</v>
-      </c>
-      <c r="C4" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="P4" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P5" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="C6" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>945</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P6" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C7" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>960</v>
-      </c>
-      <c r="C8" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>961</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0.98</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="C9" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>963</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0.98</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P10" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P11" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P12" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P13" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="C14" s="16">
-        <v>42370</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P14" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -40716,12 +39425,1403 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>9</v>
+      </c>
+      <c r="B2" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.93175128299999999</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.45751116400000003</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.82776713800000001</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.68092942400000001</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.30315546799999998</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.132785559</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.28942163300000001</v>
+      </c>
+      <c r="M2" s="6">
+        <v>5</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.92731706999999997</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.684749108</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.78842665300000003</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.86370060400000004</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.50499575600000002</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.87669438600000005</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.19922045199999999</v>
+      </c>
+      <c r="M3" s="6">
+        <v>7</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>11</v>
+      </c>
+      <c r="B4" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.77017539000000002</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.60959730599999995</v>
+      </c>
+      <c r="H4" s="6">
+        <v>8.6094840000000006E-3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.21138432300000001</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.475142974</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.35318346099999998</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.96924487299999995</v>
+      </c>
+      <c r="M4" s="6">
+        <v>8</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.67949911799999996</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.98780689700000002</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.342283271</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.30764573000000001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.42363846100000002</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.53742198399999996</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.60442163500000001</v>
+      </c>
+      <c r="M5" s="6">
+        <v>7</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.36322991199999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.585966498</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.28058723299999999</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.57867705300000005</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.29612353400000002</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.502473104</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.96767113800000004</v>
+      </c>
+      <c r="M6" s="6">
+        <v>6</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.86703272099999995</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.96711685800000002</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.46170325800000001</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.17533649300000001</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.60445965599999996</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.89186230099999997</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.53500187600000004</v>
+      </c>
+      <c r="M7" s="6">
+        <v>6</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>15</v>
+      </c>
+      <c r="B8" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.46587564199999998</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.22875558200000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.41388356900000001</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.340464712</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.15157773399999999</v>
+      </c>
+      <c r="K8" s="6">
+        <v>6.6392779999999998E-2</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.14471081699999999</v>
+      </c>
+      <c r="M8" s="6">
+        <v>3</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>16</v>
+      </c>
+      <c r="B9" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.46365853499999998</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.342374554</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.394213327</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.43185030200000002</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.25249787800000001</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.43834719300000002</v>
+      </c>
+      <c r="L9" s="6">
+        <v>9.9610225999999996E-2</v>
+      </c>
+      <c r="M9" s="6">
+        <v>4</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>17</v>
+      </c>
+      <c r="B10" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.38508769500000001</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.30479865299999997</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4.3047420000000003E-3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.10569216200000001</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.237571487</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.176591731</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.48462243700000002</v>
+      </c>
+      <c r="M10" s="6">
+        <v>4</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>18</v>
+      </c>
+      <c r="B11" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.33974955899999998</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.49390344899999999</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.17114163600000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.153822865</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.211819231</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.26871099199999998</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.30221081799999999</v>
+      </c>
+      <c r="M11" s="6">
+        <v>4</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>19</v>
+      </c>
+      <c r="B12" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.18161495599999999</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.292983249</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.14029361700000001</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.28933852700000001</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.14806176700000001</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.251236552</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.48383556900000002</v>
+      </c>
+      <c r="M12" s="6">
+        <v>3</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>20</v>
+      </c>
+      <c r="B13" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.43351636100000002</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.48355842900000001</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.230851629</v>
+      </c>
+      <c r="I13" s="6">
+        <v>8.7668247000000005E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.30222982799999998</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.44593115100000003</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.26750093800000002</v>
+      </c>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>21</v>
+      </c>
+      <c r="B14" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.23293782099999999</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.11437779100000001</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.20694178499999999</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.170232356</v>
+      </c>
+      <c r="J14" s="6">
+        <v>7.5788866999999996E-2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>3.3196389999999999E-2</v>
+      </c>
+      <c r="L14" s="6">
+        <v>7.2355407999999996E-2</v>
+      </c>
+      <c r="M14" s="6">
+        <v>2</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="C2" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P3" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="C4" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P4" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="C6" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="C7" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P7" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="C8" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="C9" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P12" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P13" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="C14" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P14" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41354,7 +41454,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42143,10 +42243,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -42177,23 +42277,23 @@
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -42201,15 +42301,15 @@
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -42217,103 +42317,103 @@
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -42321,7 +42421,7 @@
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -42329,53 +42429,64 @@
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B28">
+    <sortCondition ref="B2:B28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -42384,8 +42495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E11:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -52059,6 +52170,541 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>VLOOKUP(A2,indicator!$A$2:$C$28,3,FALSE)</f>
+        <v>Evening meeting</v>
+      </c>
+      <c r="G2" t="str">
+        <f>VLOOKUP(E2,location!$A$2:$D$442,4,FALSE)</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="H2" t="str">
+        <f>VLOOKUP(D2,campaign!$A$2:$D$14,4,FALSE)</f>
+        <v>Afghanistan NID January 2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f>VLOOKUP(A3,indicator!$A$2:$C$28,3,FALSE)</f>
+        <v>FLW training plan</v>
+      </c>
+      <c r="G3" t="str">
+        <f>VLOOKUP(E3,location!$A$2:$D$442,4,FALSE)</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="H3" t="str">
+        <f>VLOOKUP(D3,campaign!$A$2:$D$14,4,FALSE)</f>
+        <v>Afghanistan NID January 2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(A4,indicator!$A$2:$C$28,3,FALSE)</f>
+        <v>Percent volunteers trained</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(E4,location!$A$2:$D$442,4,FALSE)</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="H4" t="str">
+        <f>VLOOKUP(D4,campaign!$A$2:$D$14,4,FALSE)</f>
+        <v>Afghanistan NID January 2015</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(A5,indicator!$A$2:$C$28,3,FALSE)</f>
+        <v>Percent vx team supervised</v>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(E5,location!$A$2:$D$442,4,FALSE)</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="H5" t="str">
+        <f>VLOOKUP(D5,campaign!$A$2:$D$14,4,FALSE)</f>
+        <v>Afghanistan NID January 2015</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(A6,indicator!$A$2:$C$28,3,FALSE)</f>
+        <v>Percent vx team trained</v>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(E6,location!$A$2:$D$442,4,FALSE)</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="H6" t="str">
+        <f>VLOOKUP(D6,campaign!$A$2:$D$14,4,FALSE)</f>
+        <v>Afghanistan NID January 2015</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(A7,indicator!$A$2:$C$28,3,FALSE)</f>
+        <v>Percent vx team using stage 3 or 4 vaccines</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(E7,location!$A$2:$D$442,4,FALSE)</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="H7" t="str">
+        <f>VLOOKUP(D7,campaign!$A$2:$D$14,4,FALSE)</f>
+        <v>Afghanistan NID January 2015</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(A8,indicator!$A$2:$C$28,3,FALSE)</f>
+        <v>Percent FLWs (operation) paid</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(E8,location!$A$2:$D$442,4,FALSE)</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="H8" t="str">
+        <f>VLOOKUP(D8,campaign!$A$2:$D$14,4,FALSE)</f>
+        <v>Afghanistan NID January 2015</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(A9,indicator!$A$2:$C$28,3,FALSE)</f>
+        <v>Out of House Missed Children</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(E9,location!$A$2:$D$442,4,FALSE)</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="H9" t="str">
+        <f>VLOOKUP(D9,campaign!$A$2:$D$14,4,FALSE)</f>
+        <v>Afghanistan NID January 2015</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(A10,indicator!$A$2:$C$28,3,FALSE)</f>
+        <v>Percent FLWs (social mobilisers) paid</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(E10,location!$A$2:$D$442,4,FALSE)</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="H10" t="str">
+        <f>VLOOKUP(D10,campaign!$A$2:$D$14,4,FALSE)</f>
+        <v>Afghanistan NID January 2015</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="6:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="6:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -52116,57 +52762,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>1020</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1021</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1048</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1045</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1046</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
         <v>42005</v>
       </c>
-      <c r="B2" s="12">
+      <c r="C2" s="12">
         <v>42035</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1024</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -52176,20 +52825,23 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
         <v>42036</v>
       </c>
-      <c r="B3" s="12">
+      <c r="C3" s="12">
         <v>42063</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1028</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -52199,20 +52851,23 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
         <v>42064</v>
       </c>
-      <c r="B4" s="12">
+      <c r="C4" s="12">
         <v>42094</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1029</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -52222,20 +52877,23 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
         <v>42095</v>
       </c>
-      <c r="B5" s="12">
+      <c r="C5" s="12">
         <v>42124</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1030</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -52245,20 +52903,23 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
         <v>42125</v>
       </c>
-      <c r="B6" s="12">
+      <c r="C6" s="12">
         <v>42155</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1031</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -52268,20 +52929,23 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
         <v>42156</v>
       </c>
-      <c r="B7" s="12">
+      <c r="C7" s="12">
         <v>42185</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1026</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -52291,20 +52955,23 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
         <v>42186</v>
       </c>
-      <c r="B8" s="12">
+      <c r="C8" s="12">
         <v>42216</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>1032</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
@@ -52314,20 +52981,23 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
         <v>42217</v>
       </c>
-      <c r="B9" s="12">
+      <c r="C9" s="12">
         <v>42247</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1033</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
@@ -52337,20 +53007,23 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
         <v>42248</v>
       </c>
-      <c r="B10" s="12">
+      <c r="C10" s="12">
         <v>42277</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1034</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
@@ -52360,20 +53033,23 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
         <v>42278</v>
       </c>
-      <c r="B11" s="12">
+      <c r="C11" s="12">
         <v>42308</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1022</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -52383,20 +53059,23 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12">
         <v>42309</v>
       </c>
-      <c r="B12" s="12">
+      <c r="C12" s="12">
         <v>42338</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1027</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
@@ -52406,20 +53085,23 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
         <v>42339</v>
       </c>
-      <c r="B13" s="12">
+      <c r="C13" s="12">
         <v>42369</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1023</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -52429,20 +53111,23 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12">
         <v>42370</v>
       </c>
-      <c r="B14" s="12">
+      <c r="C14" s="12">
         <v>42398</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>1025</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
@@ -52452,85 +53137,14 @@
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C15">
-    <sortCondition ref="A2:A15"/>
+  <sortState ref="B2:D15">
+    <sortCondition ref="B2:B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/initial_data.xlsx
+++ b/initial_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_tag" sheetId="1" r:id="rId1"/>
@@ -3386,21 +3386,12 @@
     <t>chart_json</t>
   </si>
   <si>
-    <t>{"startDate":"2015-01-01","z":0,"endDate":"2015-01-01","countries":[],"location_id":1,"timeRange":null,"locations":"sublocations","y":0,"x":21,"indicators":[21],"title":"Percent Miissed Children ( Outside Sample ) ","location_ids":[432,428,429,40,424,37,351,431,47,50,422,415,45,414,420,426],"yFormat":"%","type":"ChoroplethMap","groupBy":"indicator","xFormat":"%"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Percent Missed Children ( Outside Sampe ) </t>
   </si>
   <si>
-    <t>{"startDate":"2015-02-28","z":0,"endDate":"2016-02-29","countries":[],"location_id":1,"timeRange":null,"locations":"selected","y":20,"x":13,"indicators":[13,20],"title":"Post Campaign Table","location_ids":[33,424,1,432,428,429,40,37,351,431,47,50,422,415,45,414,420,426],"yFormat":",.0f","type":"TableChart","groupBy":"indicator","xFormat":",.0f"}</t>
-  </si>
-  <si>
     <t>Post Campaign Tabe</t>
   </si>
   <si>
-    <t>{"countries":[],"endDate":"2015-01-01","groupBy":"indicator","indicators":[21],"location_id":1,"location_ids":[424],"locations":"sublocations","startDate":"2015-01-01","timeRange":null,"title":"Percent Miissed Children Line Chart","type":"LineChart","x":21,"xFormat":"%","y":0,"yFormat":"%","z":0}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trend -- Percent Missed Children ( Outside Sampe ) </t>
   </si>
   <si>
@@ -3408,6 +3399,15 @@
   </si>
   <si>
     <t>lpd_status</t>
+  </si>
+  <si>
+    <t>{"countries":[],"endDate":"2015-01-01","groupBy":"indicator","indicator_ids":[21],"location_id":1,"location_ids":[424],"location_depth":"sublocations","startDate":"2015-01-01","timeRange":null,"title":"Percent Miissed Children Line Chart","type":"LineChart","x":21,"xFormat":"%","y":0,"yFormat":"%","z":0}</t>
+  </si>
+  <si>
+    <t>{"startDate":"2015-01-01","z":0,"endDate":"2015-01-01","countries":[],"location_id":1,"timeRange":null,"location_depth":"sublocations","y":0,"x":21,"indicator_ids":[21],"title":"Percent Miissed Children ( Outside Sample ) ","location_ids":[432,428,429,40,424,37,351,431,47,50,422,415,45,414,420,426],"yFormat":"%","type":"ChoroplethMap","groupBy":"indicator","xFormat":"%"}</t>
+  </si>
+  <si>
+    <t>{"startDate":"2015-02-28","z":0,"endDate":"2016-02-29","countries":[],"location_id":1,"timeRange":null,"location_depth":"selected","y":20,"x":13,"indicator_ids":[13,20],"title":"Post Campaign Table","location_ids":[33,424,1,432,428,429,40,37,351,431,47,50,422,415,45,414,420,426],"yFormat":",.0f","type":"TableChart","groupBy":"indicator","xFormat":",.0f"}</t>
   </si>
 </sst>
 </file>
@@ -39232,11 +39232,11 @@
       </c>
       <c r="B2" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.506537037036</v>
+        <v>42429.954942939818</v>
       </c>
       <c r="C2" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.506537037036</v>
+        <v>42429.954942939818</v>
       </c>
       <c r="D2" t="s">
         <v>1110</v>
@@ -39248,11 +39248,11 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.506537037036</v>
+        <v>42429.954942939818</v>
       </c>
       <c r="C3" s="14">
         <f ca="1">NOW()</f>
-        <v>42429.506537037036</v>
+        <v>42429.954942939818</v>
       </c>
       <c r="D3" t="s">
         <v>1110</v>
@@ -40658,8 +40658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -40669,7 +40669,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C1" t="s">
         <v>1114</v>
@@ -40680,10 +40680,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C2" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -40691,10 +40691,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C3" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -40702,10 +40702,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>1120</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31" x14ac:dyDescent="0.35">
@@ -42384,7 +42384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
@@ -42414,7 +42414,7 @@
         <v>1045</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">

--- a/initial_data.xlsx
+++ b/initial_data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/code/rhizome/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dima/Dropbox/vhosts/clients/rhizome/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_tag" sheetId="1" r:id="rId1"/>
@@ -3368,21 +3368,12 @@
     <t>chart_json</t>
   </si>
   <si>
-    <t>{"startDate":"2015-01-01","z":0,"endDate":"2015-01-01","countries":[],"location_id":1,"timeRange":null,"locations":"sublocations","y":0,"x":21,"indicators":[21],"title":"Percent Miissed Children ( Outside Sample ) ","location_ids":[432,428,429,40,424,37,351,431,47,50,422,415,45,414,420,426],"yFormat":"%","type":"ChoroplethMap","groupBy":"indicator","xFormat":"%"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Percent Missed Children ( Outside Sampe ) </t>
   </si>
   <si>
-    <t>{"startDate":"2015-02-28","z":0,"endDate":"2016-02-29","countries":[],"location_id":1,"timeRange":null,"locations":"selected","y":20,"x":13,"indicators":[13,20],"title":"Post Campaign Table","location_ids":[33,424,1,432,428,429,40,37,351,431,47,50,422,415,45,414,420,426],"yFormat":",.0f","type":"TableChart","groupBy":"indicator","xFormat":",.0f"}</t>
-  </si>
-  <si>
     <t>Post Campaign Tabe</t>
   </si>
   <si>
-    <t>{"countries":[],"endDate":"2015-01-01","groupBy":"indicator","indicators":[21],"location_id":1,"location_ids":[424],"locations":"sublocations","startDate":"2015-01-01","timeRange":null,"title":"Percent Miissed Children Line Chart","type":"LineChart","x":21,"xFormat":"%","y":0,"yFormat":"%","z":0}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trend -- Percent Missed Children ( Outside Sampe ) </t>
   </si>
   <si>
@@ -3417,6 +3408,15 @@
   </si>
   <si>
     <t>Integer value cooresponding to the prerformance of a district</t>
+  </si>
+  <si>
+    <t>{"startDate":"2015-01-01","z":0,"endDate":"2015-01-01","countries":[],"location_id":1,"timeRange":null,"locations":"sublocations","y":0,"x":21,"indicator_ids":[21],"title":"Percent Miissed Children ( Outside Sample ) ","location_ids":[432,428,429,40,424,37,351,431,47,50,422,415,45,414,420,426],"yFormat":"%","type":"ChoroplethMap","groupBy":"indicator","xFormat":"%"}</t>
+  </si>
+  <si>
+    <t>{"countries":[],"endDate":"2015-01-01","groupBy":"indicator","indicator_ids":[21],"location_id":1,"location_ids":[424],"locations":"sublocations","startDate":"2015-01-01","timeRange":null,"title":"Percent Miissed Children Line Chart","type":"LineChart","x":21,"xFormat":"%","y":0,"yFormat":"%","z":0}</t>
+  </si>
+  <si>
+    <t>{"startDate":"2015-02-28","z":0,"endDate":"2016-02-29","countries":[],"location_id":1,"timeRange":null,"locations":"selected","y":20,"x":13,"indicator_ids":[13,20],"title":"Post Campaign Table","location_ids":[33,424,1,432,428,429,40,37,351,431,47,50,422,415,45,414,420,426],"yFormat":",.0f","type":"TableChart","groupBy":"indicator","xFormat":",.0f"}</t>
   </si>
 </sst>
 </file>
@@ -39249,11 +39249,11 @@
       </c>
       <c r="B2" s="14">
         <f ca="1">NOW()</f>
-        <v>42432.500267129632</v>
+        <v>42432.96724953704</v>
       </c>
       <c r="C2" s="14">
         <f ca="1">NOW()</f>
-        <v>42432.500267129632</v>
+        <v>42432.96724953704</v>
       </c>
       <c r="D2" t="s">
         <v>1104</v>
@@ -39265,11 +39265,11 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">NOW()</f>
-        <v>42432.500267129632</v>
+        <v>42432.96724953704</v>
       </c>
       <c r="C3" s="14">
         <f ca="1">NOW()</f>
-        <v>42432.500267129632</v>
+        <v>42432.96724953704</v>
       </c>
       <c r="D3" t="s">
         <v>1104</v>
@@ -39284,8 +39284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -39295,7 +39295,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C1" t="s">
         <v>1108</v>
@@ -39306,10 +39306,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C2" t="s">
-        <v>1109</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -39317,10 +39317,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C3" t="s">
-        <v>1111</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -39328,10 +39328,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1113</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31" x14ac:dyDescent="0.35">
@@ -41399,10 +41399,10 @@
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -41431,7 +41431,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -41457,7 +41457,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -41465,7 +41465,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>24</v>
@@ -41509,7 +41509,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -41535,7 +41535,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -41587,7 +41587,7 @@
         <v>0.8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -41743,7 +41743,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -41751,7 +41751,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>60</v>
@@ -42055,7 +42055,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -42107,7 +42107,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -42115,13 +42115,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>1122</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>1125</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>26</v>
@@ -42133,7 +42133,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -42156,7 +42156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -42460,7 +42460,7 @@
         <v>1039</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">

--- a/initial_data.xlsx
+++ b/initial_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_tag" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="2304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="2306">
   <si>
     <t>tag_name</t>
   </si>
@@ -6950,6 +6950,12 @@
   </si>
   <si>
     <t>% missed children</t>
+  </si>
+  <si>
+    <t>March 2016 - OPV - LPD</t>
+  </si>
+  <si>
+    <t>November 2015 - OPV - LPD</t>
   </si>
 </sst>
 </file>
@@ -42951,11 +42957,11 @@
       </c>
       <c r="B2" s="14">
         <f ca="1">NOW()</f>
-        <v>42487.533880555558</v>
+        <v>42487.817650694444</v>
       </c>
       <c r="C2" s="14">
         <f ca="1">NOW()</f>
-        <v>42487.533880555558</v>
+        <v>42487.817650694444</v>
       </c>
       <c r="D2" t="s">
         <v>1054</v>
@@ -42967,11 +42973,11 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">NOW()</f>
-        <v>42487.533880555558</v>
+        <v>42487.817650694444</v>
       </c>
       <c r="C3" s="14">
         <f ca="1">NOW()</f>
-        <v>42487.533880555558</v>
+        <v>42487.817650694444</v>
       </c>
       <c r="D3" t="s">
         <v>1054</v>
@@ -45989,7 +45995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -81417,10 +81423,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -81557,6 +81563,58 @@
         <v>1</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>42430</v>
+      </c>
+      <c r="C6" s="12">
+        <v>42430</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>42309</v>
+      </c>
+      <c r="C7" s="12">
+        <v>42316</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2305</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
